--- a/Figures/Risk Register.xlsx
+++ b/Figures/Risk Register.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="680" windowWidth="33700" windowHeight="26620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="aLIGO 42015" sheetId="1" r:id="rId3"/>
+    <sheet name="aLIGO 42015" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -115,25 +124,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Trebuchet MS"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -175,79 +199,688 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'aLIGO 42015'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gravity Gradient too high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'aLIGO 42015'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thermal Distortion destabilizes ASC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'aLIGO 42015'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OMC PZT noise too high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'aLIGO 42015'!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="2119244552"/>
+        <c:axId val="2119885256"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="2119244552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2119885256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2119885256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2119244552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.86"/>
-    <col customWidth="1" min="3" max="3" width="16.57"/>
-    <col customWidth="1" min="4" max="4" width="18.29"/>
-    <col customWidth="1" min="5" max="5" width="18.43"/>
-    <col customWidth="1" min="6" max="6" width="25.29"/>
-    <col customWidth="1" min="7" max="7" width="32.43"/>
-    <col customWidth="1" min="8" max="8" width="17.29"/>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -292,7 +925,7 @@
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -300,23 +933,23 @@
         <v>9</v>
       </c>
       <c r="C2" s="7">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D2" s="7">
         <v>0.3</v>
       </c>
       <c r="E2" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G2" s="9">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:27" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -324,23 +957,23 @@
         <v>11</v>
       </c>
       <c r="C3" s="7">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7">
         <v>0.5</v>
       </c>
       <c r="E3" s="8">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="F3" s="7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G3" s="9">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -348,23 +981,23 @@
         <v>13</v>
       </c>
       <c r="C4" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
         <v>0.1</v>
       </c>
       <c r="E4" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
@@ -372,23 +1005,23 @@
         <v>13</v>
       </c>
       <c r="C5" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
         <v>0.03</v>
       </c>
       <c r="E5" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G5" s="9">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -396,23 +1029,23 @@
         <v>16</v>
       </c>
       <c r="C6" s="7">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="D6" s="7">
         <v>0.03</v>
       </c>
       <c r="E6" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F6" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -420,23 +1053,23 @@
         <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
         <v>0.15</v>
       </c>
       <c r="E7" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="7">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="9">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
@@ -444,23 +1077,23 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D8" s="7">
         <v>0.5</v>
       </c>
       <c r="E8" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="7">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G8" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -468,23 +1101,23 @@
         <v>21</v>
       </c>
       <c r="C9" s="7">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7">
         <v>0.35</v>
       </c>
       <c r="E9" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F9" s="7">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="G9" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -492,23 +1125,23 @@
         <v>23</v>
       </c>
       <c r="C10" s="7">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
         <v>0.2</v>
       </c>
       <c r="E10" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="G10" s="9">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -516,23 +1149,23 @@
         <v>13</v>
       </c>
       <c r="C11" s="7">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
         <v>0.2</v>
       </c>
       <c r="E11" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="7">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G11" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -540,23 +1173,23 @@
         <v>23</v>
       </c>
       <c r="C12" s="7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7">
         <v>0.25</v>
       </c>
       <c r="E12" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F12" s="7">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="9">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -564,23 +1197,23 @@
         <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
         <v>0.75</v>
       </c>
       <c r="E13" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F13" s="7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G13" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="15.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
@@ -588,23 +1221,23 @@
         <v>13</v>
       </c>
       <c r="C14" s="7">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7">
         <v>0.1</v>
       </c>
       <c r="E14" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F14" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -612,23 +1245,23 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7">
         <v>0.1</v>
       </c>
       <c r="E15" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="9">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>29</v>
       </c>
@@ -636,23 +1269,23 @@
         <v>18</v>
       </c>
       <c r="C16" s="7">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
         <v>0.6</v>
       </c>
       <c r="E16" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="7">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G16" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -660,23 +1293,23 @@
         <v>23</v>
       </c>
       <c r="C17" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="D17" s="7">
         <v>0.15</v>
       </c>
       <c r="E17" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="G17" s="9">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -684,23 +1317,23 @@
         <v>23</v>
       </c>
       <c r="C18" s="7">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
         <v>0.15</v>
       </c>
       <c r="E18" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="7">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="G18" s="9">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
@@ -708,4929 +1341,4929 @@
         <v>9</v>
       </c>
       <c r="C19" s="7">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7">
         <v>0.03</v>
       </c>
       <c r="E19" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="7">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="G19" s="9">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="E20" s="11"/>
       <c r="G20" s="12"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="E21" s="11"/>
       <c r="G21" s="12"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="E22" s="11"/>
       <c r="G22" s="12"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="E23" s="11"/>
       <c r="G23" s="12"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="E24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="E25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="E26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="E27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="E28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="E29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="E30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="E31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="E32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33">
+    <row r="33" spans="5:8" ht="15.75" customHeight="1">
       <c r="E33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="5:8" ht="15.75" customHeight="1">
       <c r="E34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" spans="5:8" ht="15.75" customHeight="1">
       <c r="E35" s="11"/>
       <c r="G35" s="12"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36">
+    <row r="36" spans="5:8" ht="15.75" customHeight="1">
       <c r="E36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37">
+    <row r="37" spans="5:8" ht="15.75" customHeight="1">
       <c r="E37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38">
+    <row r="38" spans="5:8" ht="15.75" customHeight="1">
       <c r="E38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39">
+    <row r="39" spans="5:8" ht="15.75" customHeight="1">
       <c r="E39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40">
+    <row r="40" spans="5:8" ht="15.75" customHeight="1">
       <c r="E40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41">
+    <row r="41" spans="5:8" ht="15.75" customHeight="1">
       <c r="E41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42">
+    <row r="42" spans="5:8" ht="15.75" customHeight="1">
       <c r="E42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43">
+    <row r="43" spans="5:8" ht="15.75" customHeight="1">
       <c r="E43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="5:8" ht="15.75" customHeight="1">
       <c r="E44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" spans="5:8" ht="15.75" customHeight="1">
       <c r="E45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46">
+    <row r="46" spans="5:8" ht="15.75" customHeight="1">
       <c r="E46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47">
+    <row r="47" spans="5:8" ht="15.75" customHeight="1">
       <c r="E47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48">
+    <row r="48" spans="5:8" ht="15.75" customHeight="1">
       <c r="E48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="5:8" ht="15.75" customHeight="1">
       <c r="E49" s="11"/>
       <c r="G49" s="12"/>
       <c r="H49" s="10"/>
     </row>
-    <row r="50">
+    <row r="50" spans="5:8" ht="15.75" customHeight="1">
       <c r="E50" s="11"/>
       <c r="G50" s="12"/>
       <c r="H50" s="10"/>
     </row>
-    <row r="51">
+    <row r="51" spans="5:8" ht="15.75" customHeight="1">
       <c r="E51" s="11"/>
       <c r="G51" s="12"/>
       <c r="H51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="5:8" ht="15.75" customHeight="1">
       <c r="E52" s="11"/>
       <c r="G52" s="12"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53">
+    <row r="53" spans="5:8" ht="15.75" customHeight="1">
       <c r="E53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54">
+    <row r="54" spans="5:8" ht="15.75" customHeight="1">
       <c r="E54" s="11"/>
       <c r="G54" s="12"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55">
+    <row r="55" spans="5:8" ht="15.75" customHeight="1">
       <c r="E55" s="11"/>
       <c r="G55" s="12"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56">
+    <row r="56" spans="5:8" ht="15.75" customHeight="1">
       <c r="E56" s="11"/>
       <c r="G56" s="12"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57">
+    <row r="57" spans="5:8" ht="15.75" customHeight="1">
       <c r="E57" s="11"/>
       <c r="G57" s="12"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58">
+    <row r="58" spans="5:8" ht="15.75" customHeight="1">
       <c r="E58" s="11"/>
       <c r="G58" s="12"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59">
+    <row r="59" spans="5:8" ht="15.75" customHeight="1">
       <c r="E59" s="11"/>
       <c r="G59" s="12"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60">
+    <row r="60" spans="5:8" ht="15.75" customHeight="1">
       <c r="E60" s="11"/>
       <c r="G60" s="12"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61">
+    <row r="61" spans="5:8" ht="15.75" customHeight="1">
       <c r="E61" s="11"/>
       <c r="G61" s="12"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62">
+    <row r="62" spans="5:8" ht="15.75" customHeight="1">
       <c r="E62" s="11"/>
       <c r="G62" s="12"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63">
+    <row r="63" spans="5:8" ht="15.75" customHeight="1">
       <c r="E63" s="11"/>
       <c r="G63" s="12"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64">
+    <row r="64" spans="5:8" ht="15.75" customHeight="1">
       <c r="E64" s="11"/>
       <c r="G64" s="12"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65">
+    <row r="65" spans="5:8" ht="15.75" customHeight="1">
       <c r="E65" s="11"/>
       <c r="G65" s="12"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66">
+    <row r="66" spans="5:8" ht="15.75" customHeight="1">
       <c r="E66" s="11"/>
       <c r="G66" s="12"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67">
+    <row r="67" spans="5:8" ht="15.75" customHeight="1">
       <c r="E67" s="11"/>
       <c r="G67" s="12"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68">
+    <row r="68" spans="5:8" ht="15.75" customHeight="1">
       <c r="E68" s="11"/>
       <c r="G68" s="12"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69">
+    <row r="69" spans="5:8" ht="15.75" customHeight="1">
       <c r="E69" s="11"/>
       <c r="G69" s="12"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70">
+    <row r="70" spans="5:8" ht="15.75" customHeight="1">
       <c r="E70" s="11"/>
       <c r="G70" s="12"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71">
+    <row r="71" spans="5:8" ht="15.75" customHeight="1">
       <c r="E71" s="11"/>
       <c r="G71" s="12"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72">
+    <row r="72" spans="5:8" ht="15.75" customHeight="1">
       <c r="E72" s="11"/>
       <c r="G72" s="12"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73">
+    <row r="73" spans="5:8" ht="15.75" customHeight="1">
       <c r="E73" s="11"/>
       <c r="G73" s="12"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74">
+    <row r="74" spans="5:8" ht="15.75" customHeight="1">
       <c r="E74" s="11"/>
       <c r="G74" s="12"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75">
+    <row r="75" spans="5:8" ht="15.75" customHeight="1">
       <c r="E75" s="11"/>
       <c r="G75" s="12"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76">
+    <row r="76" spans="5:8" ht="15.75" customHeight="1">
       <c r="E76" s="11"/>
       <c r="G76" s="12"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77">
+    <row r="77" spans="5:8" ht="15.75" customHeight="1">
       <c r="E77" s="11"/>
       <c r="G77" s="12"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78">
+    <row r="78" spans="5:8" ht="15.75" customHeight="1">
       <c r="E78" s="11"/>
       <c r="G78" s="12"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79">
+    <row r="79" spans="5:8" ht="15.75" customHeight="1">
       <c r="E79" s="11"/>
       <c r="G79" s="12"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80">
+    <row r="80" spans="5:8" ht="15.75" customHeight="1">
       <c r="E80" s="11"/>
       <c r="G80" s="12"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81">
+    <row r="81" spans="5:8" ht="15.75" customHeight="1">
       <c r="E81" s="11"/>
       <c r="G81" s="12"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" spans="5:8" ht="15.75" customHeight="1">
       <c r="E82" s="11"/>
       <c r="G82" s="12"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" spans="5:8" ht="15.75" customHeight="1">
       <c r="E83" s="11"/>
       <c r="G83" s="12"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" spans="5:8" ht="15.75" customHeight="1">
       <c r="E84" s="11"/>
       <c r="G84" s="12"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85">
+    <row r="85" spans="5:8" ht="15.75" customHeight="1">
       <c r="E85" s="11"/>
       <c r="G85" s="12"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86">
+    <row r="86" spans="5:8" ht="15.75" customHeight="1">
       <c r="E86" s="11"/>
       <c r="G86" s="12"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87">
+    <row r="87" spans="5:8" ht="15.75" customHeight="1">
       <c r="E87" s="11"/>
       <c r="G87" s="12"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88">
+    <row r="88" spans="5:8" ht="15.75" customHeight="1">
       <c r="E88" s="11"/>
       <c r="G88" s="12"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89">
+    <row r="89" spans="5:8" ht="15.75" customHeight="1">
       <c r="E89" s="11"/>
       <c r="G89" s="12"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90">
+    <row r="90" spans="5:8" ht="15.75" customHeight="1">
       <c r="E90" s="11"/>
       <c r="G90" s="12"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91">
+    <row r="91" spans="5:8" ht="15.75" customHeight="1">
       <c r="E91" s="11"/>
       <c r="G91" s="12"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92">
+    <row r="92" spans="5:8" ht="15.75" customHeight="1">
       <c r="E92" s="11"/>
       <c r="G92" s="12"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93">
+    <row r="93" spans="5:8" ht="15.75" customHeight="1">
       <c r="E93" s="11"/>
       <c r="G93" s="12"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94">
+    <row r="94" spans="5:8" ht="15.75" customHeight="1">
       <c r="E94" s="11"/>
       <c r="G94" s="12"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95">
+    <row r="95" spans="5:8" ht="15.75" customHeight="1">
       <c r="E95" s="11"/>
       <c r="G95" s="12"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96">
+    <row r="96" spans="5:8" ht="15.75" customHeight="1">
       <c r="E96" s="11"/>
       <c r="G96" s="12"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97">
+    <row r="97" spans="5:8" ht="15.75" customHeight="1">
       <c r="E97" s="11"/>
       <c r="G97" s="12"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98">
+    <row r="98" spans="5:8" ht="15.75" customHeight="1">
       <c r="E98" s="11"/>
       <c r="G98" s="12"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99">
+    <row r="99" spans="5:8" ht="15.75" customHeight="1">
       <c r="E99" s="11"/>
       <c r="G99" s="12"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100">
+    <row r="100" spans="5:8" ht="15.75" customHeight="1">
       <c r="E100" s="11"/>
       <c r="G100" s="12"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101">
+    <row r="101" spans="5:8" ht="15.75" customHeight="1">
       <c r="E101" s="11"/>
       <c r="G101" s="12"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102">
+    <row r="102" spans="5:8" ht="15.75" customHeight="1">
       <c r="E102" s="11"/>
       <c r="G102" s="12"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103">
+    <row r="103" spans="5:8" ht="15.75" customHeight="1">
       <c r="E103" s="11"/>
       <c r="G103" s="12"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104">
+    <row r="104" spans="5:8" ht="15.75" customHeight="1">
       <c r="E104" s="11"/>
       <c r="G104" s="12"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105">
+    <row r="105" spans="5:8" ht="15.75" customHeight="1">
       <c r="E105" s="11"/>
       <c r="G105" s="12"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106">
+    <row r="106" spans="5:8" ht="15.75" customHeight="1">
       <c r="E106" s="11"/>
       <c r="G106" s="12"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107">
+    <row r="107" spans="5:8" ht="15.75" customHeight="1">
       <c r="E107" s="11"/>
       <c r="G107" s="12"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108">
+    <row r="108" spans="5:8" ht="15.75" customHeight="1">
       <c r="E108" s="11"/>
       <c r="G108" s="12"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109">
+    <row r="109" spans="5:8" ht="15.75" customHeight="1">
       <c r="E109" s="11"/>
       <c r="G109" s="12"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110">
+    <row r="110" spans="5:8" ht="15.75" customHeight="1">
       <c r="E110" s="11"/>
       <c r="G110" s="12"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111">
+    <row r="111" spans="5:8" ht="15.75" customHeight="1">
       <c r="E111" s="11"/>
       <c r="G111" s="12"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112">
+    <row r="112" spans="5:8" ht="15.75" customHeight="1">
       <c r="E112" s="11"/>
       <c r="G112" s="12"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113">
+    <row r="113" spans="5:8" ht="15.75" customHeight="1">
       <c r="E113" s="11"/>
       <c r="G113" s="12"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114">
+    <row r="114" spans="5:8" ht="15.75" customHeight="1">
       <c r="E114" s="11"/>
       <c r="G114" s="12"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115">
+    <row r="115" spans="5:8" ht="15.75" customHeight="1">
       <c r="E115" s="11"/>
       <c r="G115" s="12"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116">
+    <row r="116" spans="5:8" ht="15.75" customHeight="1">
       <c r="E116" s="11"/>
       <c r="G116" s="12"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117">
+    <row r="117" spans="5:8" ht="15.75" customHeight="1">
       <c r="E117" s="11"/>
       <c r="G117" s="12"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118">
+    <row r="118" spans="5:8" ht="15.75" customHeight="1">
       <c r="E118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119">
+    <row r="119" spans="5:8" ht="15.75" customHeight="1">
       <c r="E119" s="11"/>
       <c r="G119" s="12"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120">
+    <row r="120" spans="5:8" ht="15.75" customHeight="1">
       <c r="E120" s="11"/>
       <c r="G120" s="12"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121">
+    <row r="121" spans="5:8" ht="15.75" customHeight="1">
       <c r="E121" s="11"/>
       <c r="G121" s="12"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122">
+    <row r="122" spans="5:8" ht="15.75" customHeight="1">
       <c r="E122" s="11"/>
       <c r="G122" s="12"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123">
+    <row r="123" spans="5:8" ht="15.75" customHeight="1">
       <c r="E123" s="11"/>
       <c r="G123" s="12"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124">
+    <row r="124" spans="5:8" ht="15.75" customHeight="1">
       <c r="E124" s="11"/>
       <c r="G124" s="12"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125">
+    <row r="125" spans="5:8" ht="15.75" customHeight="1">
       <c r="E125" s="11"/>
       <c r="G125" s="12"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126">
+    <row r="126" spans="5:8" ht="15.75" customHeight="1">
       <c r="E126" s="11"/>
       <c r="G126" s="12"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127">
+    <row r="127" spans="5:8" ht="15.75" customHeight="1">
       <c r="E127" s="11"/>
       <c r="G127" s="12"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128">
+    <row r="128" spans="5:8" ht="15.75" customHeight="1">
       <c r="E128" s="11"/>
       <c r="G128" s="12"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129">
+    <row r="129" spans="5:8" ht="15.75" customHeight="1">
       <c r="E129" s="11"/>
       <c r="G129" s="12"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130">
+    <row r="130" spans="5:8" ht="15.75" customHeight="1">
       <c r="E130" s="11"/>
       <c r="G130" s="12"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131">
+    <row r="131" spans="5:8" ht="15.75" customHeight="1">
       <c r="E131" s="11"/>
       <c r="G131" s="12"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132">
+    <row r="132" spans="5:8" ht="15.75" customHeight="1">
       <c r="E132" s="11"/>
       <c r="G132" s="12"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133">
+    <row r="133" spans="5:8" ht="15.75" customHeight="1">
       <c r="E133" s="11"/>
       <c r="G133" s="12"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134">
+    <row r="134" spans="5:8" ht="15.75" customHeight="1">
       <c r="E134" s="11"/>
       <c r="G134" s="12"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135">
+    <row r="135" spans="5:8" ht="15.75" customHeight="1">
       <c r="E135" s="11"/>
       <c r="G135" s="12"/>
       <c r="H135" s="10"/>
     </row>
-    <row r="136">
+    <row r="136" spans="5:8" ht="15.75" customHeight="1">
       <c r="E136" s="11"/>
       <c r="G136" s="12"/>
       <c r="H136" s="10"/>
     </row>
-    <row r="137">
+    <row r="137" spans="5:8" ht="15.75" customHeight="1">
       <c r="E137" s="11"/>
       <c r="G137" s="12"/>
       <c r="H137" s="10"/>
     </row>
-    <row r="138">
+    <row r="138" spans="5:8" ht="15.75" customHeight="1">
       <c r="E138" s="11"/>
       <c r="G138" s="12"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139">
+    <row r="139" spans="5:8" ht="15.75" customHeight="1">
       <c r="E139" s="11"/>
       <c r="G139" s="12"/>
       <c r="H139" s="10"/>
     </row>
-    <row r="140">
+    <row r="140" spans="5:8" ht="15.75" customHeight="1">
       <c r="E140" s="11"/>
       <c r="G140" s="12"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141">
+    <row r="141" spans="5:8" ht="15.75" customHeight="1">
       <c r="E141" s="11"/>
       <c r="G141" s="12"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142">
+    <row r="142" spans="5:8" ht="15.75" customHeight="1">
       <c r="E142" s="11"/>
       <c r="G142" s="12"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143">
+    <row r="143" spans="5:8" ht="15.75" customHeight="1">
       <c r="E143" s="11"/>
       <c r="G143" s="12"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144">
+    <row r="144" spans="5:8" ht="15.75" customHeight="1">
       <c r="E144" s="11"/>
       <c r="G144" s="12"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145">
+    <row r="145" spans="5:8" ht="15.75" customHeight="1">
       <c r="E145" s="11"/>
       <c r="G145" s="12"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146">
+    <row r="146" spans="5:8" ht="15.75" customHeight="1">
       <c r="E146" s="11"/>
       <c r="G146" s="12"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147">
+    <row r="147" spans="5:8" ht="15.75" customHeight="1">
       <c r="E147" s="11"/>
       <c r="G147" s="12"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148">
+    <row r="148" spans="5:8" ht="15.75" customHeight="1">
       <c r="E148" s="11"/>
       <c r="G148" s="12"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149">
+    <row r="149" spans="5:8" ht="15.75" customHeight="1">
       <c r="E149" s="11"/>
       <c r="G149" s="12"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150">
+    <row r="150" spans="5:8" ht="15.75" customHeight="1">
       <c r="E150" s="11"/>
       <c r="G150" s="12"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151">
+    <row r="151" spans="5:8" ht="15.75" customHeight="1">
       <c r="E151" s="11"/>
       <c r="G151" s="12"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152">
+    <row r="152" spans="5:8" ht="15.75" customHeight="1">
       <c r="E152" s="11"/>
       <c r="G152" s="12"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153">
+    <row r="153" spans="5:8" ht="15.75" customHeight="1">
       <c r="E153" s="11"/>
       <c r="G153" s="12"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154">
+    <row r="154" spans="5:8" ht="15.75" customHeight="1">
       <c r="E154" s="11"/>
       <c r="G154" s="12"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155">
+    <row r="155" spans="5:8" ht="15.75" customHeight="1">
       <c r="E155" s="11"/>
       <c r="G155" s="12"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156">
+    <row r="156" spans="5:8" ht="15.75" customHeight="1">
       <c r="E156" s="11"/>
       <c r="G156" s="12"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157">
+    <row r="157" spans="5:8" ht="15.75" customHeight="1">
       <c r="E157" s="11"/>
       <c r="G157" s="12"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158">
+    <row r="158" spans="5:8" ht="15.75" customHeight="1">
       <c r="E158" s="11"/>
       <c r="G158" s="12"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159">
+    <row r="159" spans="5:8" ht="15.75" customHeight="1">
       <c r="E159" s="11"/>
       <c r="G159" s="12"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160">
+    <row r="160" spans="5:8" ht="15.75" customHeight="1">
       <c r="E160" s="11"/>
       <c r="G160" s="12"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161">
+    <row r="161" spans="5:8" ht="15.75" customHeight="1">
       <c r="E161" s="11"/>
       <c r="G161" s="12"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162">
+    <row r="162" spans="5:8" ht="15.75" customHeight="1">
       <c r="E162" s="11"/>
       <c r="G162" s="12"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163">
+    <row r="163" spans="5:8" ht="15.75" customHeight="1">
       <c r="E163" s="11"/>
       <c r="G163" s="12"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164">
+    <row r="164" spans="5:8" ht="15.75" customHeight="1">
       <c r="E164" s="11"/>
       <c r="G164" s="12"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165">
+    <row r="165" spans="5:8" ht="15.75" customHeight="1">
       <c r="E165" s="11"/>
       <c r="G165" s="12"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166">
+    <row r="166" spans="5:8" ht="15.75" customHeight="1">
       <c r="E166" s="11"/>
       <c r="G166" s="12"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167">
+    <row r="167" spans="5:8" ht="15.75" customHeight="1">
       <c r="E167" s="11"/>
       <c r="G167" s="12"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168">
+    <row r="168" spans="5:8" ht="15.75" customHeight="1">
       <c r="E168" s="11"/>
       <c r="G168" s="12"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169">
+    <row r="169" spans="5:8" ht="15.75" customHeight="1">
       <c r="E169" s="11"/>
       <c r="G169" s="12"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170">
+    <row r="170" spans="5:8" ht="15.75" customHeight="1">
       <c r="E170" s="11"/>
       <c r="G170" s="12"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171">
+    <row r="171" spans="5:8" ht="15.75" customHeight="1">
       <c r="E171" s="11"/>
       <c r="G171" s="12"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172">
+    <row r="172" spans="5:8" ht="15.75" customHeight="1">
       <c r="E172" s="11"/>
       <c r="G172" s="12"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173">
+    <row r="173" spans="5:8" ht="15.75" customHeight="1">
       <c r="E173" s="11"/>
       <c r="G173" s="12"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174">
+    <row r="174" spans="5:8" ht="15.75" customHeight="1">
       <c r="E174" s="11"/>
       <c r="G174" s="12"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175">
+    <row r="175" spans="5:8" ht="15.75" customHeight="1">
       <c r="E175" s="11"/>
       <c r="G175" s="12"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176">
+    <row r="176" spans="5:8" ht="15.75" customHeight="1">
       <c r="E176" s="11"/>
       <c r="G176" s="12"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177">
+    <row r="177" spans="5:8" ht="15.75" customHeight="1">
       <c r="E177" s="11"/>
       <c r="G177" s="12"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178">
+    <row r="178" spans="5:8" ht="15.75" customHeight="1">
       <c r="E178" s="11"/>
       <c r="G178" s="12"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179">
+    <row r="179" spans="5:8" ht="15.75" customHeight="1">
       <c r="E179" s="11"/>
       <c r="G179" s="12"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180">
+    <row r="180" spans="5:8" ht="15.75" customHeight="1">
       <c r="E180" s="11"/>
       <c r="G180" s="12"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181">
+    <row r="181" spans="5:8" ht="15.75" customHeight="1">
       <c r="E181" s="11"/>
       <c r="G181" s="12"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182">
+    <row r="182" spans="5:8" ht="15.75" customHeight="1">
       <c r="E182" s="11"/>
       <c r="G182" s="12"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183">
+    <row r="183" spans="5:8" ht="15.75" customHeight="1">
       <c r="E183" s="11"/>
       <c r="G183" s="12"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184">
+    <row r="184" spans="5:8" ht="15.75" customHeight="1">
       <c r="E184" s="11"/>
       <c r="G184" s="12"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185">
+    <row r="185" spans="5:8" ht="15.75" customHeight="1">
       <c r="E185" s="11"/>
       <c r="G185" s="12"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186">
+    <row r="186" spans="5:8" ht="15.75" customHeight="1">
       <c r="E186" s="11"/>
       <c r="G186" s="12"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187">
+    <row r="187" spans="5:8" ht="15.75" customHeight="1">
       <c r="E187" s="11"/>
       <c r="G187" s="12"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188">
+    <row r="188" spans="5:8" ht="15.75" customHeight="1">
       <c r="E188" s="11"/>
       <c r="G188" s="12"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189">
+    <row r="189" spans="5:8" ht="15.75" customHeight="1">
       <c r="E189" s="11"/>
       <c r="G189" s="12"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190">
+    <row r="190" spans="5:8" ht="15.75" customHeight="1">
       <c r="E190" s="11"/>
       <c r="G190" s="12"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191">
+    <row r="191" spans="5:8" ht="15.75" customHeight="1">
       <c r="E191" s="11"/>
       <c r="G191" s="12"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192">
+    <row r="192" spans="5:8" ht="15.75" customHeight="1">
       <c r="E192" s="11"/>
       <c r="G192" s="12"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193">
+    <row r="193" spans="5:8" ht="15.75" customHeight="1">
       <c r="E193" s="11"/>
       <c r="G193" s="12"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194">
+    <row r="194" spans="5:8" ht="15.75" customHeight="1">
       <c r="E194" s="11"/>
       <c r="G194" s="12"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195">
+    <row r="195" spans="5:8" ht="15.75" customHeight="1">
       <c r="E195" s="11"/>
       <c r="G195" s="12"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196">
+    <row r="196" spans="5:8" ht="15.75" customHeight="1">
       <c r="E196" s="11"/>
       <c r="G196" s="12"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197">
+    <row r="197" spans="5:8" ht="15.75" customHeight="1">
       <c r="E197" s="11"/>
       <c r="G197" s="12"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198">
+    <row r="198" spans="5:8" ht="15.75" customHeight="1">
       <c r="E198" s="11"/>
       <c r="G198" s="12"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199">
+    <row r="199" spans="5:8" ht="15.75" customHeight="1">
       <c r="E199" s="11"/>
       <c r="G199" s="12"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200">
+    <row r="200" spans="5:8" ht="15.75" customHeight="1">
       <c r="E200" s="11"/>
       <c r="G200" s="12"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201">
+    <row r="201" spans="5:8" ht="15.75" customHeight="1">
       <c r="E201" s="11"/>
       <c r="G201" s="12"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202">
+    <row r="202" spans="5:8" ht="15.75" customHeight="1">
       <c r="E202" s="11"/>
       <c r="G202" s="12"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203">
+    <row r="203" spans="5:8" ht="15.75" customHeight="1">
       <c r="E203" s="11"/>
       <c r="G203" s="12"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204">
+    <row r="204" spans="5:8" ht="15.75" customHeight="1">
       <c r="E204" s="11"/>
       <c r="G204" s="12"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205">
+    <row r="205" spans="5:8" ht="15.75" customHeight="1">
       <c r="E205" s="11"/>
       <c r="G205" s="12"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206">
+    <row r="206" spans="5:8" ht="15.75" customHeight="1">
       <c r="E206" s="11"/>
       <c r="G206" s="12"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207">
+    <row r="207" spans="5:8" ht="15.75" customHeight="1">
       <c r="E207" s="11"/>
       <c r="G207" s="12"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208">
+    <row r="208" spans="5:8" ht="15.75" customHeight="1">
       <c r="E208" s="11"/>
       <c r="G208" s="12"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209">
+    <row r="209" spans="5:8" ht="15.75" customHeight="1">
       <c r="E209" s="11"/>
       <c r="G209" s="12"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210">
+    <row r="210" spans="5:8" ht="15.75" customHeight="1">
       <c r="E210" s="11"/>
       <c r="G210" s="12"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211">
+    <row r="211" spans="5:8" ht="15.75" customHeight="1">
       <c r="E211" s="11"/>
       <c r="G211" s="12"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212">
+    <row r="212" spans="5:8" ht="15.75" customHeight="1">
       <c r="E212" s="11"/>
       <c r="G212" s="12"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213">
+    <row r="213" spans="5:8" ht="15.75" customHeight="1">
       <c r="E213" s="11"/>
       <c r="G213" s="12"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214">
+    <row r="214" spans="5:8" ht="15.75" customHeight="1">
       <c r="E214" s="11"/>
       <c r="G214" s="12"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215">
+    <row r="215" spans="5:8" ht="15.75" customHeight="1">
       <c r="E215" s="11"/>
       <c r="G215" s="12"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216">
+    <row r="216" spans="5:8" ht="15.75" customHeight="1">
       <c r="E216" s="11"/>
       <c r="G216" s="12"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217">
+    <row r="217" spans="5:8" ht="15.75" customHeight="1">
       <c r="E217" s="11"/>
       <c r="G217" s="12"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218">
+    <row r="218" spans="5:8" ht="15.75" customHeight="1">
       <c r="E218" s="11"/>
       <c r="G218" s="12"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219">
+    <row r="219" spans="5:8" ht="15.75" customHeight="1">
       <c r="E219" s="11"/>
       <c r="G219" s="12"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220">
+    <row r="220" spans="5:8" ht="15.75" customHeight="1">
       <c r="E220" s="11"/>
       <c r="G220" s="12"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221">
+    <row r="221" spans="5:8" ht="15.75" customHeight="1">
       <c r="E221" s="11"/>
       <c r="G221" s="12"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222">
+    <row r="222" spans="5:8" ht="15.75" customHeight="1">
       <c r="E222" s="11"/>
       <c r="G222" s="12"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223">
+    <row r="223" spans="5:8" ht="15.75" customHeight="1">
       <c r="E223" s="11"/>
       <c r="G223" s="12"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224">
+    <row r="224" spans="5:8" ht="15.75" customHeight="1">
       <c r="E224" s="11"/>
       <c r="G224" s="12"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225">
+    <row r="225" spans="5:8" ht="15.75" customHeight="1">
       <c r="E225" s="11"/>
       <c r="G225" s="12"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226">
+    <row r="226" spans="5:8" ht="15.75" customHeight="1">
       <c r="E226" s="11"/>
       <c r="G226" s="12"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227">
+    <row r="227" spans="5:8" ht="15.75" customHeight="1">
       <c r="E227" s="11"/>
       <c r="G227" s="12"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228">
+    <row r="228" spans="5:8" ht="15.75" customHeight="1">
       <c r="E228" s="11"/>
       <c r="G228" s="12"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229">
+    <row r="229" spans="5:8" ht="15.75" customHeight="1">
       <c r="E229" s="11"/>
       <c r="G229" s="12"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230">
+    <row r="230" spans="5:8" ht="15.75" customHeight="1">
       <c r="E230" s="11"/>
       <c r="G230" s="12"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231">
+    <row r="231" spans="5:8" ht="15.75" customHeight="1">
       <c r="E231" s="11"/>
       <c r="G231" s="12"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232">
+    <row r="232" spans="5:8" ht="15.75" customHeight="1">
       <c r="E232" s="11"/>
       <c r="G232" s="12"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233">
+    <row r="233" spans="5:8" ht="15.75" customHeight="1">
       <c r="E233" s="11"/>
       <c r="G233" s="12"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234">
+    <row r="234" spans="5:8" ht="15.75" customHeight="1">
       <c r="E234" s="11"/>
       <c r="G234" s="12"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235">
+    <row r="235" spans="5:8" ht="15.75" customHeight="1">
       <c r="E235" s="11"/>
       <c r="G235" s="12"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236">
+    <row r="236" spans="5:8" ht="15.75" customHeight="1">
       <c r="E236" s="11"/>
       <c r="G236" s="12"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237">
+    <row r="237" spans="5:8" ht="15.75" customHeight="1">
       <c r="E237" s="11"/>
       <c r="G237" s="12"/>
       <c r="H237" s="10"/>
     </row>
-    <row r="238">
+    <row r="238" spans="5:8" ht="15.75" customHeight="1">
       <c r="E238" s="11"/>
       <c r="G238" s="12"/>
       <c r="H238" s="10"/>
     </row>
-    <row r="239">
+    <row r="239" spans="5:8" ht="15.75" customHeight="1">
       <c r="E239" s="11"/>
       <c r="G239" s="12"/>
       <c r="H239" s="10"/>
     </row>
-    <row r="240">
+    <row r="240" spans="5:8" ht="15.75" customHeight="1">
       <c r="E240" s="11"/>
       <c r="G240" s="12"/>
       <c r="H240" s="10"/>
     </row>
-    <row r="241">
+    <row r="241" spans="5:8" ht="15.75" customHeight="1">
       <c r="E241" s="11"/>
       <c r="G241" s="12"/>
       <c r="H241" s="10"/>
     </row>
-    <row r="242">
+    <row r="242" spans="5:8" ht="15.75" customHeight="1">
       <c r="E242" s="11"/>
       <c r="G242" s="12"/>
       <c r="H242" s="10"/>
     </row>
-    <row r="243">
+    <row r="243" spans="5:8" ht="15.75" customHeight="1">
       <c r="E243" s="11"/>
       <c r="G243" s="12"/>
       <c r="H243" s="10"/>
     </row>
-    <row r="244">
+    <row r="244" spans="5:8" ht="15.75" customHeight="1">
       <c r="E244" s="11"/>
       <c r="G244" s="12"/>
       <c r="H244" s="10"/>
     </row>
-    <row r="245">
+    <row r="245" spans="5:8" ht="15.75" customHeight="1">
       <c r="E245" s="11"/>
       <c r="G245" s="12"/>
       <c r="H245" s="10"/>
     </row>
-    <row r="246">
+    <row r="246" spans="5:8" ht="15.75" customHeight="1">
       <c r="E246" s="11"/>
       <c r="G246" s="12"/>
       <c r="H246" s="10"/>
     </row>
-    <row r="247">
+    <row r="247" spans="5:8" ht="15.75" customHeight="1">
       <c r="E247" s="11"/>
       <c r="G247" s="12"/>
       <c r="H247" s="10"/>
     </row>
-    <row r="248">
+    <row r="248" spans="5:8" ht="15.75" customHeight="1">
       <c r="E248" s="11"/>
       <c r="G248" s="12"/>
       <c r="H248" s="10"/>
     </row>
-    <row r="249">
+    <row r="249" spans="5:8" ht="15.75" customHeight="1">
       <c r="E249" s="11"/>
       <c r="G249" s="12"/>
       <c r="H249" s="10"/>
     </row>
-    <row r="250">
+    <row r="250" spans="5:8" ht="15.75" customHeight="1">
       <c r="E250" s="11"/>
       <c r="G250" s="12"/>
       <c r="H250" s="10"/>
     </row>
-    <row r="251">
+    <row r="251" spans="5:8" ht="15.75" customHeight="1">
       <c r="E251" s="11"/>
       <c r="G251" s="12"/>
       <c r="H251" s="10"/>
     </row>
-    <row r="252">
+    <row r="252" spans="5:8" ht="15.75" customHeight="1">
       <c r="E252" s="11"/>
       <c r="G252" s="12"/>
       <c r="H252" s="10"/>
     </row>
-    <row r="253">
+    <row r="253" spans="5:8" ht="15.75" customHeight="1">
       <c r="E253" s="11"/>
       <c r="G253" s="12"/>
       <c r="H253" s="10"/>
     </row>
-    <row r="254">
+    <row r="254" spans="5:8" ht="15.75" customHeight="1">
       <c r="E254" s="11"/>
       <c r="G254" s="12"/>
       <c r="H254" s="10"/>
     </row>
-    <row r="255">
+    <row r="255" spans="5:8" ht="15.75" customHeight="1">
       <c r="E255" s="11"/>
       <c r="G255" s="12"/>
       <c r="H255" s="10"/>
     </row>
-    <row r="256">
+    <row r="256" spans="5:8" ht="15.75" customHeight="1">
       <c r="E256" s="11"/>
       <c r="G256" s="12"/>
       <c r="H256" s="10"/>
     </row>
-    <row r="257">
+    <row r="257" spans="5:8" ht="15.75" customHeight="1">
       <c r="E257" s="11"/>
       <c r="G257" s="12"/>
       <c r="H257" s="10"/>
     </row>
-    <row r="258">
+    <row r="258" spans="5:8" ht="15.75" customHeight="1">
       <c r="E258" s="11"/>
       <c r="G258" s="12"/>
       <c r="H258" s="10"/>
     </row>
-    <row r="259">
+    <row r="259" spans="5:8" ht="15.75" customHeight="1">
       <c r="E259" s="11"/>
       <c r="G259" s="12"/>
       <c r="H259" s="10"/>
     </row>
-    <row r="260">
+    <row r="260" spans="5:8" ht="15.75" customHeight="1">
       <c r="E260" s="11"/>
       <c r="G260" s="12"/>
       <c r="H260" s="10"/>
     </row>
-    <row r="261">
+    <row r="261" spans="5:8" ht="15.75" customHeight="1">
       <c r="E261" s="11"/>
       <c r="G261" s="12"/>
       <c r="H261" s="10"/>
     </row>
-    <row r="262">
+    <row r="262" spans="5:8" ht="15.75" customHeight="1">
       <c r="E262" s="11"/>
       <c r="G262" s="12"/>
       <c r="H262" s="10"/>
     </row>
-    <row r="263">
+    <row r="263" spans="5:8" ht="15.75" customHeight="1">
       <c r="E263" s="11"/>
       <c r="G263" s="12"/>
       <c r="H263" s="10"/>
     </row>
-    <row r="264">
+    <row r="264" spans="5:8" ht="15.75" customHeight="1">
       <c r="E264" s="11"/>
       <c r="G264" s="12"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265">
+    <row r="265" spans="5:8" ht="15.75" customHeight="1">
       <c r="E265" s="11"/>
       <c r="G265" s="12"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266">
+    <row r="266" spans="5:8" ht="15.75" customHeight="1">
       <c r="E266" s="11"/>
       <c r="G266" s="12"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267">
+    <row r="267" spans="5:8" ht="15.75" customHeight="1">
       <c r="E267" s="11"/>
       <c r="G267" s="12"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268">
+    <row r="268" spans="5:8" ht="15.75" customHeight="1">
       <c r="E268" s="11"/>
       <c r="G268" s="12"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269">
+    <row r="269" spans="5:8" ht="15.75" customHeight="1">
       <c r="E269" s="11"/>
       <c r="G269" s="12"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270">
+    <row r="270" spans="5:8" ht="15.75" customHeight="1">
       <c r="E270" s="11"/>
       <c r="G270" s="12"/>
       <c r="H270" s="10"/>
     </row>
-    <row r="271">
+    <row r="271" spans="5:8" ht="15.75" customHeight="1">
       <c r="E271" s="11"/>
       <c r="G271" s="12"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272">
+    <row r="272" spans="5:8" ht="15.75" customHeight="1">
       <c r="E272" s="11"/>
       <c r="G272" s="12"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273">
+    <row r="273" spans="5:8" ht="15.75" customHeight="1">
       <c r="E273" s="11"/>
       <c r="G273" s="12"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274">
+    <row r="274" spans="5:8" ht="15.75" customHeight="1">
       <c r="E274" s="11"/>
       <c r="G274" s="12"/>
       <c r="H274" s="10"/>
     </row>
-    <row r="275">
+    <row r="275" spans="5:8" ht="15.75" customHeight="1">
       <c r="E275" s="11"/>
       <c r="G275" s="12"/>
       <c r="H275" s="10"/>
     </row>
-    <row r="276">
+    <row r="276" spans="5:8" ht="15.75" customHeight="1">
       <c r="E276" s="11"/>
       <c r="G276" s="12"/>
       <c r="H276" s="10"/>
     </row>
-    <row r="277">
+    <row r="277" spans="5:8" ht="15.75" customHeight="1">
       <c r="E277" s="11"/>
       <c r="G277" s="12"/>
       <c r="H277" s="10"/>
     </row>
-    <row r="278">
+    <row r="278" spans="5:8" ht="15.75" customHeight="1">
       <c r="E278" s="11"/>
       <c r="G278" s="12"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279">
+    <row r="279" spans="5:8" ht="15.75" customHeight="1">
       <c r="E279" s="11"/>
       <c r="G279" s="12"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280">
+    <row r="280" spans="5:8" ht="15.75" customHeight="1">
       <c r="E280" s="11"/>
       <c r="G280" s="12"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281">
+    <row r="281" spans="5:8" ht="15.75" customHeight="1">
       <c r="E281" s="11"/>
       <c r="G281" s="12"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282">
+    <row r="282" spans="5:8" ht="15.75" customHeight="1">
       <c r="E282" s="11"/>
       <c r="G282" s="12"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283">
+    <row r="283" spans="5:8" ht="15.75" customHeight="1">
       <c r="E283" s="11"/>
       <c r="G283" s="12"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284">
+    <row r="284" spans="5:8" ht="15.75" customHeight="1">
       <c r="E284" s="11"/>
       <c r="G284" s="12"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285">
+    <row r="285" spans="5:8" ht="15.75" customHeight="1">
       <c r="E285" s="11"/>
       <c r="G285" s="12"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286">
+    <row r="286" spans="5:8" ht="15.75" customHeight="1">
       <c r="E286" s="11"/>
       <c r="G286" s="12"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287">
+    <row r="287" spans="5:8" ht="15.75" customHeight="1">
       <c r="E287" s="11"/>
       <c r="G287" s="12"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288">
+    <row r="288" spans="5:8" ht="15.75" customHeight="1">
       <c r="E288" s="11"/>
       <c r="G288" s="12"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289">
+    <row r="289" spans="5:8" ht="15.75" customHeight="1">
       <c r="E289" s="11"/>
       <c r="G289" s="12"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290">
+    <row r="290" spans="5:8" ht="15.75" customHeight="1">
       <c r="E290" s="11"/>
       <c r="G290" s="12"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291">
+    <row r="291" spans="5:8" ht="15.75" customHeight="1">
       <c r="E291" s="11"/>
       <c r="G291" s="12"/>
       <c r="H291" s="10"/>
     </row>
-    <row r="292">
+    <row r="292" spans="5:8" ht="15.75" customHeight="1">
       <c r="E292" s="11"/>
       <c r="G292" s="12"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293">
+    <row r="293" spans="5:8" ht="15.75" customHeight="1">
       <c r="E293" s="11"/>
       <c r="G293" s="12"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294">
+    <row r="294" spans="5:8" ht="15.75" customHeight="1">
       <c r="E294" s="11"/>
       <c r="G294" s="12"/>
       <c r="H294" s="10"/>
     </row>
-    <row r="295">
+    <row r="295" spans="5:8" ht="15.75" customHeight="1">
       <c r="E295" s="11"/>
       <c r="G295" s="12"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296">
+    <row r="296" spans="5:8" ht="15.75" customHeight="1">
       <c r="E296" s="11"/>
       <c r="G296" s="12"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297">
+    <row r="297" spans="5:8" ht="15.75" customHeight="1">
       <c r="E297" s="11"/>
       <c r="G297" s="12"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298">
+    <row r="298" spans="5:8" ht="15.75" customHeight="1">
       <c r="E298" s="11"/>
       <c r="G298" s="12"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299">
+    <row r="299" spans="5:8" ht="15.75" customHeight="1">
       <c r="E299" s="11"/>
       <c r="G299" s="12"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300">
+    <row r="300" spans="5:8" ht="15.75" customHeight="1">
       <c r="E300" s="11"/>
       <c r="G300" s="12"/>
       <c r="H300" s="10"/>
     </row>
-    <row r="301">
+    <row r="301" spans="5:8" ht="15.75" customHeight="1">
       <c r="E301" s="11"/>
       <c r="G301" s="12"/>
       <c r="H301" s="10"/>
     </row>
-    <row r="302">
+    <row r="302" spans="5:8" ht="15.75" customHeight="1">
       <c r="E302" s="11"/>
       <c r="G302" s="12"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303">
+    <row r="303" spans="5:8" ht="15.75" customHeight="1">
       <c r="E303" s="11"/>
       <c r="G303" s="12"/>
       <c r="H303" s="10"/>
     </row>
-    <row r="304">
+    <row r="304" spans="5:8" ht="15.75" customHeight="1">
       <c r="E304" s="11"/>
       <c r="G304" s="12"/>
       <c r="H304" s="10"/>
     </row>
-    <row r="305">
+    <row r="305" spans="5:8" ht="15.75" customHeight="1">
       <c r="E305" s="11"/>
       <c r="G305" s="12"/>
       <c r="H305" s="10"/>
     </row>
-    <row r="306">
+    <row r="306" spans="5:8" ht="15.75" customHeight="1">
       <c r="E306" s="11"/>
       <c r="G306" s="12"/>
       <c r="H306" s="10"/>
     </row>
-    <row r="307">
+    <row r="307" spans="5:8" ht="15.75" customHeight="1">
       <c r="E307" s="11"/>
       <c r="G307" s="12"/>
       <c r="H307" s="10"/>
     </row>
-    <row r="308">
+    <row r="308" spans="5:8" ht="15.75" customHeight="1">
       <c r="E308" s="11"/>
       <c r="G308" s="12"/>
       <c r="H308" s="10"/>
     </row>
-    <row r="309">
+    <row r="309" spans="5:8" ht="15.75" customHeight="1">
       <c r="E309" s="11"/>
       <c r="G309" s="12"/>
       <c r="H309" s="10"/>
     </row>
-    <row r="310">
+    <row r="310" spans="5:8" ht="15.75" customHeight="1">
       <c r="E310" s="11"/>
       <c r="G310" s="12"/>
       <c r="H310" s="10"/>
     </row>
-    <row r="311">
+    <row r="311" spans="5:8" ht="15.75" customHeight="1">
       <c r="E311" s="11"/>
       <c r="G311" s="12"/>
       <c r="H311" s="10"/>
     </row>
-    <row r="312">
+    <row r="312" spans="5:8" ht="15.75" customHeight="1">
       <c r="E312" s="11"/>
       <c r="G312" s="12"/>
       <c r="H312" s="10"/>
     </row>
-    <row r="313">
+    <row r="313" spans="5:8" ht="15.75" customHeight="1">
       <c r="E313" s="11"/>
       <c r="G313" s="12"/>
       <c r="H313" s="10"/>
     </row>
-    <row r="314">
+    <row r="314" spans="5:8" ht="15.75" customHeight="1">
       <c r="E314" s="11"/>
       <c r="G314" s="12"/>
       <c r="H314" s="10"/>
     </row>
-    <row r="315">
+    <row r="315" spans="5:8" ht="15.75" customHeight="1">
       <c r="E315" s="11"/>
       <c r="G315" s="12"/>
       <c r="H315" s="10"/>
     </row>
-    <row r="316">
+    <row r="316" spans="5:8" ht="15.75" customHeight="1">
       <c r="E316" s="11"/>
       <c r="G316" s="12"/>
       <c r="H316" s="10"/>
     </row>
-    <row r="317">
+    <row r="317" spans="5:8" ht="15.75" customHeight="1">
       <c r="E317" s="11"/>
       <c r="G317" s="12"/>
       <c r="H317" s="10"/>
     </row>
-    <row r="318">
+    <row r="318" spans="5:8" ht="15.75" customHeight="1">
       <c r="E318" s="11"/>
       <c r="G318" s="12"/>
       <c r="H318" s="10"/>
     </row>
-    <row r="319">
+    <row r="319" spans="5:8" ht="15.75" customHeight="1">
       <c r="E319" s="11"/>
       <c r="G319" s="12"/>
       <c r="H319" s="10"/>
     </row>
-    <row r="320">
+    <row r="320" spans="5:8" ht="15.75" customHeight="1">
       <c r="E320" s="11"/>
       <c r="G320" s="12"/>
       <c r="H320" s="10"/>
     </row>
-    <row r="321">
+    <row r="321" spans="5:8" ht="15.75" customHeight="1">
       <c r="E321" s="11"/>
       <c r="G321" s="12"/>
       <c r="H321" s="10"/>
     </row>
-    <row r="322">
+    <row r="322" spans="5:8" ht="15.75" customHeight="1">
       <c r="E322" s="11"/>
       <c r="G322" s="12"/>
       <c r="H322" s="10"/>
     </row>
-    <row r="323">
+    <row r="323" spans="5:8" ht="15.75" customHeight="1">
       <c r="E323" s="11"/>
       <c r="G323" s="12"/>
       <c r="H323" s="10"/>
     </row>
-    <row r="324">
+    <row r="324" spans="5:8" ht="15.75" customHeight="1">
       <c r="E324" s="11"/>
       <c r="G324" s="12"/>
       <c r="H324" s="10"/>
     </row>
-    <row r="325">
+    <row r="325" spans="5:8" ht="15.75" customHeight="1">
       <c r="E325" s="11"/>
       <c r="G325" s="12"/>
       <c r="H325" s="10"/>
     </row>
-    <row r="326">
+    <row r="326" spans="5:8" ht="15.75" customHeight="1">
       <c r="E326" s="11"/>
       <c r="G326" s="12"/>
       <c r="H326" s="10"/>
     </row>
-    <row r="327">
+    <row r="327" spans="5:8" ht="15.75" customHeight="1">
       <c r="E327" s="11"/>
       <c r="G327" s="12"/>
       <c r="H327" s="10"/>
     </row>
-    <row r="328">
+    <row r="328" spans="5:8" ht="15.75" customHeight="1">
       <c r="E328" s="11"/>
       <c r="G328" s="12"/>
       <c r="H328" s="10"/>
     </row>
-    <row r="329">
+    <row r="329" spans="5:8" ht="15.75" customHeight="1">
       <c r="E329" s="11"/>
       <c r="G329" s="12"/>
       <c r="H329" s="10"/>
     </row>
-    <row r="330">
+    <row r="330" spans="5:8" ht="15.75" customHeight="1">
       <c r="E330" s="11"/>
       <c r="G330" s="12"/>
       <c r="H330" s="10"/>
     </row>
-    <row r="331">
+    <row r="331" spans="5:8" ht="15.75" customHeight="1">
       <c r="E331" s="11"/>
       <c r="G331" s="12"/>
       <c r="H331" s="10"/>
     </row>
-    <row r="332">
+    <row r="332" spans="5:8" ht="15.75" customHeight="1">
       <c r="E332" s="11"/>
       <c r="G332" s="12"/>
       <c r="H332" s="10"/>
     </row>
-    <row r="333">
+    <row r="333" spans="5:8" ht="15.75" customHeight="1">
       <c r="E333" s="11"/>
       <c r="G333" s="12"/>
       <c r="H333" s="10"/>
     </row>
-    <row r="334">
+    <row r="334" spans="5:8" ht="15.75" customHeight="1">
       <c r="E334" s="11"/>
       <c r="G334" s="12"/>
       <c r="H334" s="10"/>
     </row>
-    <row r="335">
+    <row r="335" spans="5:8" ht="15.75" customHeight="1">
       <c r="E335" s="11"/>
       <c r="G335" s="12"/>
       <c r="H335" s="10"/>
     </row>
-    <row r="336">
+    <row r="336" spans="5:8" ht="15.75" customHeight="1">
       <c r="E336" s="11"/>
       <c r="G336" s="12"/>
       <c r="H336" s="10"/>
     </row>
-    <row r="337">
+    <row r="337" spans="5:8" ht="15.75" customHeight="1">
       <c r="E337" s="11"/>
       <c r="G337" s="12"/>
       <c r="H337" s="10"/>
     </row>
-    <row r="338">
+    <row r="338" spans="5:8" ht="15.75" customHeight="1">
       <c r="E338" s="11"/>
       <c r="G338" s="12"/>
       <c r="H338" s="10"/>
     </row>
-    <row r="339">
+    <row r="339" spans="5:8" ht="15.75" customHeight="1">
       <c r="E339" s="11"/>
       <c r="G339" s="12"/>
       <c r="H339" s="10"/>
     </row>
-    <row r="340">
+    <row r="340" spans="5:8" ht="15.75" customHeight="1">
       <c r="E340" s="11"/>
       <c r="G340" s="12"/>
       <c r="H340" s="10"/>
     </row>
-    <row r="341">
+    <row r="341" spans="5:8" ht="15.75" customHeight="1">
       <c r="E341" s="11"/>
       <c r="G341" s="12"/>
       <c r="H341" s="10"/>
     </row>
-    <row r="342">
+    <row r="342" spans="5:8" ht="15.75" customHeight="1">
       <c r="E342" s="11"/>
       <c r="G342" s="12"/>
       <c r="H342" s="10"/>
     </row>
-    <row r="343">
+    <row r="343" spans="5:8" ht="15.75" customHeight="1">
       <c r="E343" s="11"/>
       <c r="G343" s="12"/>
       <c r="H343" s="10"/>
     </row>
-    <row r="344">
+    <row r="344" spans="5:8" ht="15.75" customHeight="1">
       <c r="E344" s="11"/>
       <c r="G344" s="12"/>
       <c r="H344" s="10"/>
     </row>
-    <row r="345">
+    <row r="345" spans="5:8" ht="15.75" customHeight="1">
       <c r="E345" s="11"/>
       <c r="G345" s="12"/>
       <c r="H345" s="10"/>
     </row>
-    <row r="346">
+    <row r="346" spans="5:8" ht="15.75" customHeight="1">
       <c r="E346" s="11"/>
       <c r="G346" s="12"/>
       <c r="H346" s="10"/>
     </row>
-    <row r="347">
+    <row r="347" spans="5:8" ht="15.75" customHeight="1">
       <c r="E347" s="11"/>
       <c r="G347" s="12"/>
       <c r="H347" s="10"/>
     </row>
-    <row r="348">
+    <row r="348" spans="5:8" ht="15.75" customHeight="1">
       <c r="E348" s="11"/>
       <c r="G348" s="12"/>
       <c r="H348" s="10"/>
     </row>
-    <row r="349">
+    <row r="349" spans="5:8" ht="15.75" customHeight="1">
       <c r="E349" s="11"/>
       <c r="G349" s="12"/>
       <c r="H349" s="10"/>
     </row>
-    <row r="350">
+    <row r="350" spans="5:8" ht="15.75" customHeight="1">
       <c r="E350" s="11"/>
       <c r="G350" s="12"/>
       <c r="H350" s="10"/>
     </row>
-    <row r="351">
+    <row r="351" spans="5:8" ht="15.75" customHeight="1">
       <c r="E351" s="11"/>
       <c r="G351" s="12"/>
       <c r="H351" s="10"/>
     </row>
-    <row r="352">
+    <row r="352" spans="5:8" ht="15.75" customHeight="1">
       <c r="E352" s="11"/>
       <c r="G352" s="12"/>
       <c r="H352" s="10"/>
     </row>
-    <row r="353">
+    <row r="353" spans="5:8" ht="15.75" customHeight="1">
       <c r="E353" s="11"/>
       <c r="G353" s="12"/>
       <c r="H353" s="10"/>
     </row>
-    <row r="354">
+    <row r="354" spans="5:8" ht="15.75" customHeight="1">
       <c r="E354" s="11"/>
       <c r="G354" s="12"/>
       <c r="H354" s="10"/>
     </row>
-    <row r="355">
+    <row r="355" spans="5:8" ht="15.75" customHeight="1">
       <c r="E355" s="11"/>
       <c r="G355" s="12"/>
       <c r="H355" s="10"/>
     </row>
-    <row r="356">
+    <row r="356" spans="5:8" ht="15.75" customHeight="1">
       <c r="E356" s="11"/>
       <c r="G356" s="12"/>
       <c r="H356" s="10"/>
     </row>
-    <row r="357">
+    <row r="357" spans="5:8" ht="15.75" customHeight="1">
       <c r="E357" s="11"/>
       <c r="G357" s="12"/>
       <c r="H357" s="10"/>
     </row>
-    <row r="358">
+    <row r="358" spans="5:8" ht="15.75" customHeight="1">
       <c r="E358" s="11"/>
       <c r="G358" s="12"/>
       <c r="H358" s="10"/>
     </row>
-    <row r="359">
+    <row r="359" spans="5:8" ht="15.75" customHeight="1">
       <c r="E359" s="11"/>
       <c r="G359" s="12"/>
       <c r="H359" s="10"/>
     </row>
-    <row r="360">
+    <row r="360" spans="5:8" ht="15.75" customHeight="1">
       <c r="E360" s="11"/>
       <c r="G360" s="12"/>
       <c r="H360" s="10"/>
     </row>
-    <row r="361">
+    <row r="361" spans="5:8" ht="15.75" customHeight="1">
       <c r="E361" s="11"/>
       <c r="G361" s="12"/>
       <c r="H361" s="10"/>
     </row>
-    <row r="362">
+    <row r="362" spans="5:8" ht="15.75" customHeight="1">
       <c r="E362" s="11"/>
       <c r="G362" s="12"/>
       <c r="H362" s="10"/>
     </row>
-    <row r="363">
+    <row r="363" spans="5:8" ht="15.75" customHeight="1">
       <c r="E363" s="11"/>
       <c r="G363" s="12"/>
       <c r="H363" s="10"/>
     </row>
-    <row r="364">
+    <row r="364" spans="5:8" ht="15.75" customHeight="1">
       <c r="E364" s="11"/>
       <c r="G364" s="12"/>
       <c r="H364" s="10"/>
     </row>
-    <row r="365">
+    <row r="365" spans="5:8" ht="15.75" customHeight="1">
       <c r="E365" s="11"/>
       <c r="G365" s="12"/>
       <c r="H365" s="10"/>
     </row>
-    <row r="366">
+    <row r="366" spans="5:8" ht="15.75" customHeight="1">
       <c r="E366" s="11"/>
       <c r="G366" s="12"/>
       <c r="H366" s="10"/>
     </row>
-    <row r="367">
+    <row r="367" spans="5:8" ht="15.75" customHeight="1">
       <c r="E367" s="11"/>
       <c r="G367" s="12"/>
       <c r="H367" s="10"/>
     </row>
-    <row r="368">
+    <row r="368" spans="5:8" ht="15.75" customHeight="1">
       <c r="E368" s="11"/>
       <c r="G368" s="12"/>
       <c r="H368" s="10"/>
     </row>
-    <row r="369">
+    <row r="369" spans="5:8" ht="15.75" customHeight="1">
       <c r="E369" s="11"/>
       <c r="G369" s="12"/>
       <c r="H369" s="10"/>
     </row>
-    <row r="370">
+    <row r="370" spans="5:8" ht="15.75" customHeight="1">
       <c r="E370" s="11"/>
       <c r="G370" s="12"/>
       <c r="H370" s="10"/>
     </row>
-    <row r="371">
+    <row r="371" spans="5:8" ht="15.75" customHeight="1">
       <c r="E371" s="11"/>
       <c r="G371" s="12"/>
       <c r="H371" s="10"/>
     </row>
-    <row r="372">
+    <row r="372" spans="5:8" ht="15.75" customHeight="1">
       <c r="E372" s="11"/>
       <c r="G372" s="12"/>
       <c r="H372" s="10"/>
     </row>
-    <row r="373">
+    <row r="373" spans="5:8" ht="15.75" customHeight="1">
       <c r="E373" s="11"/>
       <c r="G373" s="12"/>
       <c r="H373" s="10"/>
     </row>
-    <row r="374">
+    <row r="374" spans="5:8" ht="15.75" customHeight="1">
       <c r="E374" s="11"/>
       <c r="G374" s="12"/>
       <c r="H374" s="10"/>
     </row>
-    <row r="375">
+    <row r="375" spans="5:8" ht="15.75" customHeight="1">
       <c r="E375" s="11"/>
       <c r="G375" s="12"/>
       <c r="H375" s="10"/>
     </row>
-    <row r="376">
+    <row r="376" spans="5:8" ht="15.75" customHeight="1">
       <c r="E376" s="11"/>
       <c r="G376" s="12"/>
       <c r="H376" s="10"/>
     </row>
-    <row r="377">
+    <row r="377" spans="5:8" ht="15.75" customHeight="1">
       <c r="E377" s="11"/>
       <c r="G377" s="12"/>
       <c r="H377" s="10"/>
     </row>
-    <row r="378">
+    <row r="378" spans="5:8" ht="15.75" customHeight="1">
       <c r="E378" s="11"/>
       <c r="G378" s="12"/>
       <c r="H378" s="10"/>
     </row>
-    <row r="379">
+    <row r="379" spans="5:8" ht="15.75" customHeight="1">
       <c r="E379" s="11"/>
       <c r="G379" s="12"/>
       <c r="H379" s="10"/>
     </row>
-    <row r="380">
+    <row r="380" spans="5:8" ht="15.75" customHeight="1">
       <c r="E380" s="11"/>
       <c r="G380" s="12"/>
       <c r="H380" s="10"/>
     </row>
-    <row r="381">
+    <row r="381" spans="5:8" ht="15.75" customHeight="1">
       <c r="E381" s="11"/>
       <c r="G381" s="12"/>
       <c r="H381" s="10"/>
     </row>
-    <row r="382">
+    <row r="382" spans="5:8" ht="15.75" customHeight="1">
       <c r="E382" s="11"/>
       <c r="G382" s="12"/>
       <c r="H382" s="10"/>
     </row>
-    <row r="383">
+    <row r="383" spans="5:8" ht="15.75" customHeight="1">
       <c r="E383" s="11"/>
       <c r="G383" s="12"/>
       <c r="H383" s="10"/>
     </row>
-    <row r="384">
+    <row r="384" spans="5:8" ht="15.75" customHeight="1">
       <c r="E384" s="11"/>
       <c r="G384" s="12"/>
       <c r="H384" s="10"/>
     </row>
-    <row r="385">
+    <row r="385" spans="5:8" ht="15.75" customHeight="1">
       <c r="E385" s="11"/>
       <c r="G385" s="12"/>
       <c r="H385" s="10"/>
     </row>
-    <row r="386">
+    <row r="386" spans="5:8" ht="15.75" customHeight="1">
       <c r="E386" s="11"/>
       <c r="G386" s="12"/>
       <c r="H386" s="10"/>
     </row>
-    <row r="387">
+    <row r="387" spans="5:8" ht="15.75" customHeight="1">
       <c r="E387" s="11"/>
       <c r="G387" s="12"/>
       <c r="H387" s="10"/>
     </row>
-    <row r="388">
+    <row r="388" spans="5:8" ht="15.75" customHeight="1">
       <c r="E388" s="11"/>
       <c r="G388" s="12"/>
       <c r="H388" s="10"/>
     </row>
-    <row r="389">
+    <row r="389" spans="5:8" ht="15.75" customHeight="1">
       <c r="E389" s="11"/>
       <c r="G389" s="12"/>
       <c r="H389" s="10"/>
     </row>
-    <row r="390">
+    <row r="390" spans="5:8" ht="15.75" customHeight="1">
       <c r="E390" s="11"/>
       <c r="G390" s="12"/>
       <c r="H390" s="10"/>
     </row>
-    <row r="391">
+    <row r="391" spans="5:8" ht="15.75" customHeight="1">
       <c r="E391" s="11"/>
       <c r="G391" s="12"/>
       <c r="H391" s="10"/>
     </row>
-    <row r="392">
+    <row r="392" spans="5:8" ht="15.75" customHeight="1">
       <c r="E392" s="11"/>
       <c r="G392" s="12"/>
       <c r="H392" s="10"/>
     </row>
-    <row r="393">
+    <row r="393" spans="5:8" ht="15.75" customHeight="1">
       <c r="E393" s="11"/>
       <c r="G393" s="12"/>
       <c r="H393" s="10"/>
     </row>
-    <row r="394">
+    <row r="394" spans="5:8" ht="15.75" customHeight="1">
       <c r="E394" s="11"/>
       <c r="G394" s="12"/>
       <c r="H394" s="10"/>
     </row>
-    <row r="395">
+    <row r="395" spans="5:8" ht="15.75" customHeight="1">
       <c r="E395" s="11"/>
       <c r="G395" s="12"/>
       <c r="H395" s="10"/>
     </row>
-    <row r="396">
+    <row r="396" spans="5:8" ht="15.75" customHeight="1">
       <c r="E396" s="11"/>
       <c r="G396" s="12"/>
       <c r="H396" s="10"/>
     </row>
-    <row r="397">
+    <row r="397" spans="5:8" ht="15.75" customHeight="1">
       <c r="E397" s="11"/>
       <c r="G397" s="12"/>
       <c r="H397" s="10"/>
     </row>
-    <row r="398">
+    <row r="398" spans="5:8" ht="15.75" customHeight="1">
       <c r="E398" s="11"/>
       <c r="G398" s="12"/>
       <c r="H398" s="10"/>
     </row>
-    <row r="399">
+    <row r="399" spans="5:8" ht="15.75" customHeight="1">
       <c r="E399" s="11"/>
       <c r="G399" s="12"/>
       <c r="H399" s="10"/>
     </row>
-    <row r="400">
+    <row r="400" spans="5:8" ht="15.75" customHeight="1">
       <c r="E400" s="11"/>
       <c r="G400" s="12"/>
       <c r="H400" s="10"/>
     </row>
-    <row r="401">
+    <row r="401" spans="5:8" ht="15.75" customHeight="1">
       <c r="E401" s="11"/>
       <c r="G401" s="12"/>
       <c r="H401" s="10"/>
     </row>
-    <row r="402">
+    <row r="402" spans="5:8" ht="15.75" customHeight="1">
       <c r="E402" s="11"/>
       <c r="G402" s="12"/>
       <c r="H402" s="10"/>
     </row>
-    <row r="403">
+    <row r="403" spans="5:8" ht="15.75" customHeight="1">
       <c r="E403" s="11"/>
       <c r="G403" s="12"/>
       <c r="H403" s="10"/>
     </row>
-    <row r="404">
+    <row r="404" spans="5:8" ht="15.75" customHeight="1">
       <c r="E404" s="11"/>
       <c r="G404" s="12"/>
       <c r="H404" s="10"/>
     </row>
-    <row r="405">
+    <row r="405" spans="5:8" ht="15.75" customHeight="1">
       <c r="E405" s="11"/>
       <c r="G405" s="12"/>
       <c r="H405" s="10"/>
     </row>
-    <row r="406">
+    <row r="406" spans="5:8" ht="15.75" customHeight="1">
       <c r="E406" s="11"/>
       <c r="G406" s="12"/>
       <c r="H406" s="10"/>
     </row>
-    <row r="407">
+    <row r="407" spans="5:8" ht="15.75" customHeight="1">
       <c r="E407" s="11"/>
       <c r="G407" s="12"/>
       <c r="H407" s="10"/>
     </row>
-    <row r="408">
+    <row r="408" spans="5:8" ht="15.75" customHeight="1">
       <c r="E408" s="11"/>
       <c r="G408" s="12"/>
       <c r="H408" s="10"/>
     </row>
-    <row r="409">
+    <row r="409" spans="5:8" ht="15.75" customHeight="1">
       <c r="E409" s="11"/>
       <c r="G409" s="12"/>
       <c r="H409" s="10"/>
     </row>
-    <row r="410">
+    <row r="410" spans="5:8" ht="15.75" customHeight="1">
       <c r="E410" s="11"/>
       <c r="G410" s="12"/>
       <c r="H410" s="10"/>
     </row>
-    <row r="411">
+    <row r="411" spans="5:8" ht="15.75" customHeight="1">
       <c r="E411" s="11"/>
       <c r="G411" s="12"/>
       <c r="H411" s="10"/>
     </row>
-    <row r="412">
+    <row r="412" spans="5:8" ht="15.75" customHeight="1">
       <c r="E412" s="11"/>
       <c r="G412" s="12"/>
       <c r="H412" s="10"/>
     </row>
-    <row r="413">
+    <row r="413" spans="5:8" ht="15.75" customHeight="1">
       <c r="E413" s="11"/>
       <c r="G413" s="12"/>
       <c r="H413" s="10"/>
     </row>
-    <row r="414">
+    <row r="414" spans="5:8" ht="15.75" customHeight="1">
       <c r="E414" s="11"/>
       <c r="G414" s="12"/>
       <c r="H414" s="10"/>
     </row>
-    <row r="415">
+    <row r="415" spans="5:8" ht="15.75" customHeight="1">
       <c r="E415" s="11"/>
       <c r="G415" s="12"/>
       <c r="H415" s="10"/>
     </row>
-    <row r="416">
+    <row r="416" spans="5:8" ht="15.75" customHeight="1">
       <c r="E416" s="11"/>
       <c r="G416" s="12"/>
       <c r="H416" s="10"/>
     </row>
-    <row r="417">
+    <row r="417" spans="5:8" ht="15.75" customHeight="1">
       <c r="E417" s="11"/>
       <c r="G417" s="12"/>
       <c r="H417" s="10"/>
     </row>
-    <row r="418">
+    <row r="418" spans="5:8" ht="15.75" customHeight="1">
       <c r="E418" s="11"/>
       <c r="G418" s="12"/>
       <c r="H418" s="10"/>
     </row>
-    <row r="419">
+    <row r="419" spans="5:8" ht="15.75" customHeight="1">
       <c r="E419" s="11"/>
       <c r="G419" s="12"/>
       <c r="H419" s="10"/>
     </row>
-    <row r="420">
+    <row r="420" spans="5:8" ht="15.75" customHeight="1">
       <c r="E420" s="11"/>
       <c r="G420" s="12"/>
       <c r="H420" s="10"/>
     </row>
-    <row r="421">
+    <row r="421" spans="5:8" ht="15.75" customHeight="1">
       <c r="E421" s="11"/>
       <c r="G421" s="12"/>
       <c r="H421" s="10"/>
     </row>
-    <row r="422">
+    <row r="422" spans="5:8" ht="15.75" customHeight="1">
       <c r="E422" s="11"/>
       <c r="G422" s="12"/>
       <c r="H422" s="10"/>
     </row>
-    <row r="423">
+    <row r="423" spans="5:8" ht="15.75" customHeight="1">
       <c r="E423" s="11"/>
       <c r="G423" s="12"/>
       <c r="H423" s="10"/>
     </row>
-    <row r="424">
+    <row r="424" spans="5:8" ht="15.75" customHeight="1">
       <c r="E424" s="11"/>
       <c r="G424" s="12"/>
       <c r="H424" s="10"/>
     </row>
-    <row r="425">
+    <row r="425" spans="5:8" ht="15.75" customHeight="1">
       <c r="E425" s="11"/>
       <c r="G425" s="12"/>
       <c r="H425" s="10"/>
     </row>
-    <row r="426">
+    <row r="426" spans="5:8" ht="15.75" customHeight="1">
       <c r="E426" s="11"/>
       <c r="G426" s="12"/>
       <c r="H426" s="10"/>
     </row>
-    <row r="427">
+    <row r="427" spans="5:8" ht="15.75" customHeight="1">
       <c r="E427" s="11"/>
       <c r="G427" s="12"/>
       <c r="H427" s="10"/>
     </row>
-    <row r="428">
+    <row r="428" spans="5:8" ht="15.75" customHeight="1">
       <c r="E428" s="11"/>
       <c r="G428" s="12"/>
       <c r="H428" s="10"/>
     </row>
-    <row r="429">
+    <row r="429" spans="5:8" ht="15.75" customHeight="1">
       <c r="E429" s="11"/>
       <c r="G429" s="12"/>
       <c r="H429" s="10"/>
     </row>
-    <row r="430">
+    <row r="430" spans="5:8" ht="15.75" customHeight="1">
       <c r="E430" s="11"/>
       <c r="G430" s="12"/>
       <c r="H430" s="10"/>
     </row>
-    <row r="431">
+    <row r="431" spans="5:8" ht="15.75" customHeight="1">
       <c r="E431" s="11"/>
       <c r="G431" s="12"/>
       <c r="H431" s="10"/>
     </row>
-    <row r="432">
+    <row r="432" spans="5:8" ht="15.75" customHeight="1">
       <c r="E432" s="11"/>
       <c r="G432" s="12"/>
       <c r="H432" s="10"/>
     </row>
-    <row r="433">
+    <row r="433" spans="5:8" ht="15.75" customHeight="1">
       <c r="E433" s="11"/>
       <c r="G433" s="12"/>
       <c r="H433" s="10"/>
     </row>
-    <row r="434">
+    <row r="434" spans="5:8" ht="15.75" customHeight="1">
       <c r="E434" s="11"/>
       <c r="G434" s="12"/>
       <c r="H434" s="10"/>
     </row>
-    <row r="435">
+    <row r="435" spans="5:8" ht="15.75" customHeight="1">
       <c r="E435" s="11"/>
       <c r="G435" s="12"/>
       <c r="H435" s="10"/>
     </row>
-    <row r="436">
+    <row r="436" spans="5:8" ht="15.75" customHeight="1">
       <c r="E436" s="11"/>
       <c r="G436" s="12"/>
       <c r="H436" s="10"/>
     </row>
-    <row r="437">
+    <row r="437" spans="5:8" ht="15.75" customHeight="1">
       <c r="E437" s="11"/>
       <c r="G437" s="12"/>
       <c r="H437" s="10"/>
     </row>
-    <row r="438">
+    <row r="438" spans="5:8" ht="15.75" customHeight="1">
       <c r="E438" s="11"/>
       <c r="G438" s="12"/>
       <c r="H438" s="10"/>
     </row>
-    <row r="439">
+    <row r="439" spans="5:8" ht="15.75" customHeight="1">
       <c r="E439" s="11"/>
       <c r="G439" s="12"/>
       <c r="H439" s="10"/>
     </row>
-    <row r="440">
+    <row r="440" spans="5:8" ht="15.75" customHeight="1">
       <c r="E440" s="11"/>
       <c r="G440" s="12"/>
       <c r="H440" s="10"/>
     </row>
-    <row r="441">
+    <row r="441" spans="5:8" ht="15.75" customHeight="1">
       <c r="E441" s="11"/>
       <c r="G441" s="12"/>
       <c r="H441" s="10"/>
     </row>
-    <row r="442">
+    <row r="442" spans="5:8" ht="15.75" customHeight="1">
       <c r="E442" s="11"/>
       <c r="G442" s="12"/>
       <c r="H442" s="10"/>
     </row>
-    <row r="443">
+    <row r="443" spans="5:8" ht="15.75" customHeight="1">
       <c r="E443" s="11"/>
       <c r="G443" s="12"/>
       <c r="H443" s="10"/>
     </row>
-    <row r="444">
+    <row r="444" spans="5:8" ht="15.75" customHeight="1">
       <c r="E444" s="11"/>
       <c r="G444" s="12"/>
       <c r="H444" s="10"/>
     </row>
-    <row r="445">
+    <row r="445" spans="5:8" ht="15.75" customHeight="1">
       <c r="E445" s="11"/>
       <c r="G445" s="12"/>
       <c r="H445" s="10"/>
     </row>
-    <row r="446">
+    <row r="446" spans="5:8" ht="15.75" customHeight="1">
       <c r="E446" s="11"/>
       <c r="G446" s="12"/>
       <c r="H446" s="10"/>
     </row>
-    <row r="447">
+    <row r="447" spans="5:8" ht="15.75" customHeight="1">
       <c r="E447" s="11"/>
       <c r="G447" s="12"/>
       <c r="H447" s="10"/>
     </row>
-    <row r="448">
+    <row r="448" spans="5:8" ht="15.75" customHeight="1">
       <c r="E448" s="11"/>
       <c r="G448" s="12"/>
       <c r="H448" s="10"/>
     </row>
-    <row r="449">
+    <row r="449" spans="5:8" ht="15.75" customHeight="1">
       <c r="E449" s="11"/>
       <c r="G449" s="12"/>
       <c r="H449" s="10"/>
     </row>
-    <row r="450">
+    <row r="450" spans="5:8" ht="15.75" customHeight="1">
       <c r="E450" s="11"/>
       <c r="G450" s="12"/>
       <c r="H450" s="10"/>
     </row>
-    <row r="451">
+    <row r="451" spans="5:8" ht="15.75" customHeight="1">
       <c r="E451" s="11"/>
       <c r="G451" s="12"/>
       <c r="H451" s="10"/>
     </row>
-    <row r="452">
+    <row r="452" spans="5:8" ht="15.75" customHeight="1">
       <c r="E452" s="11"/>
       <c r="G452" s="12"/>
       <c r="H452" s="10"/>
     </row>
-    <row r="453">
+    <row r="453" spans="5:8" ht="15.75" customHeight="1">
       <c r="E453" s="11"/>
       <c r="G453" s="12"/>
       <c r="H453" s="10"/>
     </row>
-    <row r="454">
+    <row r="454" spans="5:8" ht="15.75" customHeight="1">
       <c r="E454" s="11"/>
       <c r="G454" s="12"/>
       <c r="H454" s="10"/>
     </row>
-    <row r="455">
+    <row r="455" spans="5:8" ht="15.75" customHeight="1">
       <c r="E455" s="11"/>
       <c r="G455" s="12"/>
       <c r="H455" s="10"/>
     </row>
-    <row r="456">
+    <row r="456" spans="5:8" ht="15.75" customHeight="1">
       <c r="E456" s="11"/>
       <c r="G456" s="12"/>
       <c r="H456" s="10"/>
     </row>
-    <row r="457">
+    <row r="457" spans="5:8" ht="15.75" customHeight="1">
       <c r="E457" s="11"/>
       <c r="G457" s="12"/>
       <c r="H457" s="10"/>
     </row>
-    <row r="458">
+    <row r="458" spans="5:8" ht="15.75" customHeight="1">
       <c r="E458" s="11"/>
       <c r="G458" s="12"/>
       <c r="H458" s="10"/>
     </row>
-    <row r="459">
+    <row r="459" spans="5:8" ht="15.75" customHeight="1">
       <c r="E459" s="11"/>
       <c r="G459" s="12"/>
       <c r="H459" s="10"/>
     </row>
-    <row r="460">
+    <row r="460" spans="5:8" ht="15.75" customHeight="1">
       <c r="E460" s="11"/>
       <c r="G460" s="12"/>
       <c r="H460" s="10"/>
     </row>
-    <row r="461">
+    <row r="461" spans="5:8" ht="15.75" customHeight="1">
       <c r="E461" s="11"/>
       <c r="G461" s="12"/>
       <c r="H461" s="10"/>
     </row>
-    <row r="462">
+    <row r="462" spans="5:8" ht="15.75" customHeight="1">
       <c r="E462" s="11"/>
       <c r="G462" s="12"/>
       <c r="H462" s="10"/>
     </row>
-    <row r="463">
+    <row r="463" spans="5:8" ht="15.75" customHeight="1">
       <c r="E463" s="11"/>
       <c r="G463" s="12"/>
       <c r="H463" s="10"/>
     </row>
-    <row r="464">
+    <row r="464" spans="5:8" ht="15.75" customHeight="1">
       <c r="E464" s="11"/>
       <c r="G464" s="12"/>
       <c r="H464" s="10"/>
     </row>
-    <row r="465">
+    <row r="465" spans="5:8" ht="15.75" customHeight="1">
       <c r="E465" s="11"/>
       <c r="G465" s="12"/>
       <c r="H465" s="10"/>
     </row>
-    <row r="466">
+    <row r="466" spans="5:8" ht="15.75" customHeight="1">
       <c r="E466" s="11"/>
       <c r="G466" s="12"/>
       <c r="H466" s="10"/>
     </row>
-    <row r="467">
+    <row r="467" spans="5:8" ht="15.75" customHeight="1">
       <c r="E467" s="11"/>
       <c r="G467" s="12"/>
       <c r="H467" s="10"/>
     </row>
-    <row r="468">
+    <row r="468" spans="5:8" ht="15.75" customHeight="1">
       <c r="E468" s="11"/>
       <c r="G468" s="12"/>
       <c r="H468" s="10"/>
     </row>
-    <row r="469">
+    <row r="469" spans="5:8" ht="15.75" customHeight="1">
       <c r="E469" s="11"/>
       <c r="G469" s="12"/>
       <c r="H469" s="10"/>
     </row>
-    <row r="470">
+    <row r="470" spans="5:8" ht="15.75" customHeight="1">
       <c r="E470" s="11"/>
       <c r="G470" s="12"/>
       <c r="H470" s="10"/>
     </row>
-    <row r="471">
+    <row r="471" spans="5:8" ht="15.75" customHeight="1">
       <c r="E471" s="11"/>
       <c r="G471" s="12"/>
       <c r="H471" s="10"/>
     </row>
-    <row r="472">
+    <row r="472" spans="5:8" ht="15.75" customHeight="1">
       <c r="E472" s="11"/>
       <c r="G472" s="12"/>
       <c r="H472" s="10"/>
     </row>
-    <row r="473">
+    <row r="473" spans="5:8" ht="15.75" customHeight="1">
       <c r="E473" s="11"/>
       <c r="G473" s="12"/>
       <c r="H473" s="10"/>
     </row>
-    <row r="474">
+    <row r="474" spans="5:8" ht="15.75" customHeight="1">
       <c r="E474" s="11"/>
       <c r="G474" s="12"/>
       <c r="H474" s="10"/>
     </row>
-    <row r="475">
+    <row r="475" spans="5:8" ht="15.75" customHeight="1">
       <c r="E475" s="11"/>
       <c r="G475" s="12"/>
       <c r="H475" s="10"/>
     </row>
-    <row r="476">
+    <row r="476" spans="5:8" ht="15.75" customHeight="1">
       <c r="E476" s="11"/>
       <c r="G476" s="12"/>
       <c r="H476" s="10"/>
     </row>
-    <row r="477">
+    <row r="477" spans="5:8" ht="15.75" customHeight="1">
       <c r="E477" s="11"/>
       <c r="G477" s="12"/>
       <c r="H477" s="10"/>
     </row>
-    <row r="478">
+    <row r="478" spans="5:8" ht="15.75" customHeight="1">
       <c r="E478" s="11"/>
       <c r="G478" s="12"/>
       <c r="H478" s="10"/>
     </row>
-    <row r="479">
+    <row r="479" spans="5:8" ht="15.75" customHeight="1">
       <c r="E479" s="11"/>
       <c r="G479" s="12"/>
       <c r="H479" s="10"/>
     </row>
-    <row r="480">
+    <row r="480" spans="5:8" ht="15.75" customHeight="1">
       <c r="E480" s="11"/>
       <c r="G480" s="12"/>
       <c r="H480" s="10"/>
     </row>
-    <row r="481">
+    <row r="481" spans="5:8" ht="15.75" customHeight="1">
       <c r="E481" s="11"/>
       <c r="G481" s="12"/>
       <c r="H481" s="10"/>
     </row>
-    <row r="482">
+    <row r="482" spans="5:8" ht="15.75" customHeight="1">
       <c r="E482" s="11"/>
       <c r="G482" s="12"/>
       <c r="H482" s="10"/>
     </row>
-    <row r="483">
+    <row r="483" spans="5:8" ht="15.75" customHeight="1">
       <c r="E483" s="11"/>
       <c r="G483" s="12"/>
       <c r="H483" s="10"/>
     </row>
-    <row r="484">
+    <row r="484" spans="5:8" ht="15.75" customHeight="1">
       <c r="E484" s="11"/>
       <c r="G484" s="12"/>
       <c r="H484" s="10"/>
     </row>
-    <row r="485">
+    <row r="485" spans="5:8" ht="15.75" customHeight="1">
       <c r="E485" s="11"/>
       <c r="G485" s="12"/>
       <c r="H485" s="10"/>
     </row>
-    <row r="486">
+    <row r="486" spans="5:8" ht="15.75" customHeight="1">
       <c r="E486" s="11"/>
       <c r="G486" s="12"/>
       <c r="H486" s="10"/>
     </row>
-    <row r="487">
+    <row r="487" spans="5:8" ht="15.75" customHeight="1">
       <c r="E487" s="11"/>
       <c r="G487" s="12"/>
       <c r="H487" s="10"/>
     </row>
-    <row r="488">
+    <row r="488" spans="5:8" ht="15.75" customHeight="1">
       <c r="E488" s="11"/>
       <c r="G488" s="12"/>
       <c r="H488" s="10"/>
     </row>
-    <row r="489">
+    <row r="489" spans="5:8" ht="15.75" customHeight="1">
       <c r="E489" s="11"/>
       <c r="G489" s="12"/>
       <c r="H489" s="10"/>
     </row>
-    <row r="490">
+    <row r="490" spans="5:8" ht="15.75" customHeight="1">
       <c r="E490" s="11"/>
       <c r="G490" s="12"/>
       <c r="H490" s="10"/>
     </row>
-    <row r="491">
+    <row r="491" spans="5:8" ht="15.75" customHeight="1">
       <c r="E491" s="11"/>
       <c r="G491" s="12"/>
       <c r="H491" s="10"/>
     </row>
-    <row r="492">
+    <row r="492" spans="5:8" ht="15.75" customHeight="1">
       <c r="E492" s="11"/>
       <c r="G492" s="12"/>
       <c r="H492" s="10"/>
     </row>
-    <row r="493">
+    <row r="493" spans="5:8" ht="15.75" customHeight="1">
       <c r="E493" s="11"/>
       <c r="G493" s="12"/>
       <c r="H493" s="10"/>
     </row>
-    <row r="494">
+    <row r="494" spans="5:8" ht="15.75" customHeight="1">
       <c r="E494" s="11"/>
       <c r="G494" s="12"/>
       <c r="H494" s="10"/>
     </row>
-    <row r="495">
+    <row r="495" spans="5:8" ht="15.75" customHeight="1">
       <c r="E495" s="11"/>
       <c r="G495" s="12"/>
       <c r="H495" s="10"/>
     </row>
-    <row r="496">
+    <row r="496" spans="5:8" ht="15.75" customHeight="1">
       <c r="E496" s="11"/>
       <c r="G496" s="12"/>
       <c r="H496" s="10"/>
     </row>
-    <row r="497">
+    <row r="497" spans="5:8" ht="15.75" customHeight="1">
       <c r="E497" s="11"/>
       <c r="G497" s="12"/>
       <c r="H497" s="10"/>
     </row>
-    <row r="498">
+    <row r="498" spans="5:8" ht="15.75" customHeight="1">
       <c r="E498" s="11"/>
       <c r="G498" s="12"/>
       <c r="H498" s="10"/>
     </row>
-    <row r="499">
+    <row r="499" spans="5:8" ht="15.75" customHeight="1">
       <c r="E499" s="11"/>
       <c r="G499" s="12"/>
       <c r="H499" s="10"/>
     </row>
-    <row r="500">
+    <row r="500" spans="5:8" ht="15.75" customHeight="1">
       <c r="E500" s="11"/>
       <c r="G500" s="12"/>
       <c r="H500" s="10"/>
     </row>
-    <row r="501">
+    <row r="501" spans="5:8" ht="15.75" customHeight="1">
       <c r="E501" s="11"/>
       <c r="G501" s="12"/>
       <c r="H501" s="10"/>
     </row>
-    <row r="502">
+    <row r="502" spans="5:8" ht="15.75" customHeight="1">
       <c r="E502" s="11"/>
       <c r="G502" s="12"/>
       <c r="H502" s="10"/>
     </row>
-    <row r="503">
+    <row r="503" spans="5:8" ht="15.75" customHeight="1">
       <c r="E503" s="11"/>
       <c r="G503" s="12"/>
       <c r="H503" s="10"/>
     </row>
-    <row r="504">
+    <row r="504" spans="5:8" ht="15.75" customHeight="1">
       <c r="E504" s="11"/>
       <c r="G504" s="12"/>
       <c r="H504" s="10"/>
     </row>
-    <row r="505">
+    <row r="505" spans="5:8" ht="15.75" customHeight="1">
       <c r="E505" s="11"/>
       <c r="G505" s="12"/>
       <c r="H505" s="10"/>
     </row>
-    <row r="506">
+    <row r="506" spans="5:8" ht="15.75" customHeight="1">
       <c r="E506" s="11"/>
       <c r="G506" s="12"/>
       <c r="H506" s="10"/>
     </row>
-    <row r="507">
+    <row r="507" spans="5:8" ht="15.75" customHeight="1">
       <c r="E507" s="11"/>
       <c r="G507" s="12"/>
       <c r="H507" s="10"/>
     </row>
-    <row r="508">
+    <row r="508" spans="5:8" ht="15.75" customHeight="1">
       <c r="E508" s="11"/>
       <c r="G508" s="12"/>
       <c r="H508" s="10"/>
     </row>
-    <row r="509">
+    <row r="509" spans="5:8" ht="15.75" customHeight="1">
       <c r="E509" s="11"/>
       <c r="G509" s="12"/>
       <c r="H509" s="10"/>
     </row>
-    <row r="510">
+    <row r="510" spans="5:8" ht="15.75" customHeight="1">
       <c r="E510" s="11"/>
       <c r="G510" s="12"/>
       <c r="H510" s="10"/>
     </row>
-    <row r="511">
+    <row r="511" spans="5:8" ht="15.75" customHeight="1">
       <c r="E511" s="11"/>
       <c r="G511" s="12"/>
       <c r="H511" s="10"/>
     </row>
-    <row r="512">
+    <row r="512" spans="5:8" ht="15.75" customHeight="1">
       <c r="E512" s="11"/>
       <c r="G512" s="12"/>
       <c r="H512" s="10"/>
     </row>
-    <row r="513">
+    <row r="513" spans="5:8" ht="15.75" customHeight="1">
       <c r="E513" s="11"/>
       <c r="G513" s="12"/>
       <c r="H513" s="10"/>
     </row>
-    <row r="514">
+    <row r="514" spans="5:8" ht="15.75" customHeight="1">
       <c r="E514" s="11"/>
       <c r="G514" s="12"/>
       <c r="H514" s="10"/>
     </row>
-    <row r="515">
+    <row r="515" spans="5:8" ht="15.75" customHeight="1">
       <c r="E515" s="11"/>
       <c r="G515" s="12"/>
       <c r="H515" s="10"/>
     </row>
-    <row r="516">
+    <row r="516" spans="5:8" ht="15.75" customHeight="1">
       <c r="E516" s="11"/>
       <c r="G516" s="12"/>
       <c r="H516" s="10"/>
     </row>
-    <row r="517">
+    <row r="517" spans="5:8" ht="15.75" customHeight="1">
       <c r="E517" s="11"/>
       <c r="G517" s="12"/>
       <c r="H517" s="10"/>
     </row>
-    <row r="518">
+    <row r="518" spans="5:8" ht="15.75" customHeight="1">
       <c r="E518" s="11"/>
       <c r="G518" s="12"/>
       <c r="H518" s="10"/>
     </row>
-    <row r="519">
+    <row r="519" spans="5:8" ht="15.75" customHeight="1">
       <c r="E519" s="11"/>
       <c r="G519" s="12"/>
       <c r="H519" s="10"/>
     </row>
-    <row r="520">
+    <row r="520" spans="5:8" ht="15.75" customHeight="1">
       <c r="E520" s="11"/>
       <c r="G520" s="12"/>
       <c r="H520" s="10"/>
     </row>
-    <row r="521">
+    <row r="521" spans="5:8" ht="15.75" customHeight="1">
       <c r="E521" s="11"/>
       <c r="G521" s="12"/>
       <c r="H521" s="10"/>
     </row>
-    <row r="522">
+    <row r="522" spans="5:8" ht="15.75" customHeight="1">
       <c r="E522" s="11"/>
       <c r="G522" s="12"/>
       <c r="H522" s="10"/>
     </row>
-    <row r="523">
+    <row r="523" spans="5:8" ht="15.75" customHeight="1">
       <c r="E523" s="11"/>
       <c r="G523" s="12"/>
       <c r="H523" s="10"/>
     </row>
-    <row r="524">
+    <row r="524" spans="5:8" ht="15.75" customHeight="1">
       <c r="E524" s="11"/>
       <c r="G524" s="12"/>
       <c r="H524" s="10"/>
     </row>
-    <row r="525">
+    <row r="525" spans="5:8" ht="15.75" customHeight="1">
       <c r="E525" s="11"/>
       <c r="G525" s="12"/>
       <c r="H525" s="10"/>
     </row>
-    <row r="526">
+    <row r="526" spans="5:8" ht="15.75" customHeight="1">
       <c r="E526" s="11"/>
       <c r="G526" s="12"/>
       <c r="H526" s="10"/>
     </row>
-    <row r="527">
+    <row r="527" spans="5:8" ht="15.75" customHeight="1">
       <c r="E527" s="11"/>
       <c r="G527" s="12"/>
       <c r="H527" s="10"/>
     </row>
-    <row r="528">
+    <row r="528" spans="5:8" ht="15.75" customHeight="1">
       <c r="E528" s="11"/>
       <c r="G528" s="12"/>
       <c r="H528" s="10"/>
     </row>
-    <row r="529">
+    <row r="529" spans="5:8" ht="15.75" customHeight="1">
       <c r="E529" s="11"/>
       <c r="G529" s="12"/>
       <c r="H529" s="10"/>
     </row>
-    <row r="530">
+    <row r="530" spans="5:8" ht="15.75" customHeight="1">
       <c r="E530" s="11"/>
       <c r="G530" s="12"/>
       <c r="H530" s="10"/>
     </row>
-    <row r="531">
+    <row r="531" spans="5:8" ht="15.75" customHeight="1">
       <c r="E531" s="11"/>
       <c r="G531" s="12"/>
       <c r="H531" s="10"/>
     </row>
-    <row r="532">
+    <row r="532" spans="5:8" ht="15.75" customHeight="1">
       <c r="E532" s="11"/>
       <c r="G532" s="12"/>
       <c r="H532" s="10"/>
     </row>
-    <row r="533">
+    <row r="533" spans="5:8" ht="15.75" customHeight="1">
       <c r="E533" s="11"/>
       <c r="G533" s="12"/>
       <c r="H533" s="10"/>
     </row>
-    <row r="534">
+    <row r="534" spans="5:8" ht="15.75" customHeight="1">
       <c r="E534" s="11"/>
       <c r="G534" s="12"/>
       <c r="H534" s="10"/>
     </row>
-    <row r="535">
+    <row r="535" spans="5:8" ht="15.75" customHeight="1">
       <c r="E535" s="11"/>
       <c r="G535" s="12"/>
       <c r="H535" s="10"/>
     </row>
-    <row r="536">
+    <row r="536" spans="5:8" ht="15.75" customHeight="1">
       <c r="E536" s="11"/>
       <c r="G536" s="12"/>
       <c r="H536" s="10"/>
     </row>
-    <row r="537">
+    <row r="537" spans="5:8" ht="15.75" customHeight="1">
       <c r="E537" s="11"/>
       <c r="G537" s="12"/>
       <c r="H537" s="10"/>
     </row>
-    <row r="538">
+    <row r="538" spans="5:8" ht="15.75" customHeight="1">
       <c r="E538" s="11"/>
       <c r="G538" s="12"/>
       <c r="H538" s="10"/>
     </row>
-    <row r="539">
+    <row r="539" spans="5:8" ht="15.75" customHeight="1">
       <c r="E539" s="11"/>
       <c r="G539" s="12"/>
       <c r="H539" s="10"/>
     </row>
-    <row r="540">
+    <row r="540" spans="5:8" ht="15.75" customHeight="1">
       <c r="E540" s="11"/>
       <c r="G540" s="12"/>
       <c r="H540" s="10"/>
     </row>
-    <row r="541">
+    <row r="541" spans="5:8" ht="15.75" customHeight="1">
       <c r="E541" s="11"/>
       <c r="G541" s="12"/>
       <c r="H541" s="10"/>
     </row>
-    <row r="542">
+    <row r="542" spans="5:8" ht="15.75" customHeight="1">
       <c r="E542" s="11"/>
       <c r="G542" s="12"/>
       <c r="H542" s="10"/>
     </row>
-    <row r="543">
+    <row r="543" spans="5:8" ht="15.75" customHeight="1">
       <c r="E543" s="11"/>
       <c r="G543" s="12"/>
       <c r="H543" s="10"/>
     </row>
-    <row r="544">
+    <row r="544" spans="5:8" ht="15.75" customHeight="1">
       <c r="E544" s="11"/>
       <c r="G544" s="12"/>
       <c r="H544" s="10"/>
     </row>
-    <row r="545">
+    <row r="545" spans="5:8" ht="15.75" customHeight="1">
       <c r="E545" s="11"/>
       <c r="G545" s="12"/>
       <c r="H545" s="10"/>
     </row>
-    <row r="546">
+    <row r="546" spans="5:8" ht="15.75" customHeight="1">
       <c r="E546" s="11"/>
       <c r="G546" s="12"/>
       <c r="H546" s="10"/>
     </row>
-    <row r="547">
+    <row r="547" spans="5:8" ht="15.75" customHeight="1">
       <c r="E547" s="11"/>
       <c r="G547" s="12"/>
       <c r="H547" s="10"/>
     </row>
-    <row r="548">
+    <row r="548" spans="5:8" ht="15.75" customHeight="1">
       <c r="E548" s="11"/>
       <c r="G548" s="12"/>
       <c r="H548" s="10"/>
     </row>
-    <row r="549">
+    <row r="549" spans="5:8" ht="15.75" customHeight="1">
       <c r="E549" s="11"/>
       <c r="G549" s="12"/>
       <c r="H549" s="10"/>
     </row>
-    <row r="550">
+    <row r="550" spans="5:8" ht="15.75" customHeight="1">
       <c r="E550" s="11"/>
       <c r="G550" s="12"/>
       <c r="H550" s="10"/>
     </row>
-    <row r="551">
+    <row r="551" spans="5:8" ht="15.75" customHeight="1">
       <c r="E551" s="11"/>
       <c r="G551" s="12"/>
       <c r="H551" s="10"/>
     </row>
-    <row r="552">
+    <row r="552" spans="5:8" ht="15.75" customHeight="1">
       <c r="E552" s="11"/>
       <c r="G552" s="12"/>
       <c r="H552" s="10"/>
     </row>
-    <row r="553">
+    <row r="553" spans="5:8" ht="15.75" customHeight="1">
       <c r="E553" s="11"/>
       <c r="G553" s="12"/>
       <c r="H553" s="10"/>
     </row>
-    <row r="554">
+    <row r="554" spans="5:8" ht="15.75" customHeight="1">
       <c r="E554" s="11"/>
       <c r="G554" s="12"/>
       <c r="H554" s="10"/>
     </row>
-    <row r="555">
+    <row r="555" spans="5:8" ht="15.75" customHeight="1">
       <c r="E555" s="11"/>
       <c r="G555" s="12"/>
       <c r="H555" s="10"/>
     </row>
-    <row r="556">
+    <row r="556" spans="5:8" ht="15.75" customHeight="1">
       <c r="E556" s="11"/>
       <c r="G556" s="12"/>
       <c r="H556" s="10"/>
     </row>
-    <row r="557">
+    <row r="557" spans="5:8" ht="15.75" customHeight="1">
       <c r="E557" s="11"/>
       <c r="G557" s="12"/>
       <c r="H557" s="10"/>
     </row>
-    <row r="558">
+    <row r="558" spans="5:8" ht="15.75" customHeight="1">
       <c r="E558" s="11"/>
       <c r="G558" s="12"/>
       <c r="H558" s="10"/>
     </row>
-    <row r="559">
+    <row r="559" spans="5:8" ht="15.75" customHeight="1">
       <c r="E559" s="11"/>
       <c r="G559" s="12"/>
       <c r="H559" s="10"/>
     </row>
-    <row r="560">
+    <row r="560" spans="5:8" ht="15.75" customHeight="1">
       <c r="E560" s="11"/>
       <c r="G560" s="12"/>
       <c r="H560" s="10"/>
     </row>
-    <row r="561">
+    <row r="561" spans="5:8" ht="15.75" customHeight="1">
       <c r="E561" s="11"/>
       <c r="G561" s="12"/>
       <c r="H561" s="10"/>
     </row>
-    <row r="562">
+    <row r="562" spans="5:8" ht="15.75" customHeight="1">
       <c r="E562" s="11"/>
       <c r="G562" s="12"/>
       <c r="H562" s="10"/>
     </row>
-    <row r="563">
+    <row r="563" spans="5:8" ht="15.75" customHeight="1">
       <c r="E563" s="11"/>
       <c r="G563" s="12"/>
       <c r="H563" s="10"/>
     </row>
-    <row r="564">
+    <row r="564" spans="5:8" ht="15.75" customHeight="1">
       <c r="E564" s="11"/>
       <c r="G564" s="12"/>
       <c r="H564" s="10"/>
     </row>
-    <row r="565">
+    <row r="565" spans="5:8" ht="15.75" customHeight="1">
       <c r="E565" s="11"/>
       <c r="G565" s="12"/>
       <c r="H565" s="10"/>
     </row>
-    <row r="566">
+    <row r="566" spans="5:8" ht="15.75" customHeight="1">
       <c r="E566" s="11"/>
       <c r="G566" s="12"/>
       <c r="H566" s="10"/>
     </row>
-    <row r="567">
+    <row r="567" spans="5:8" ht="15.75" customHeight="1">
       <c r="E567" s="11"/>
       <c r="G567" s="12"/>
       <c r="H567" s="10"/>
     </row>
-    <row r="568">
+    <row r="568" spans="5:8" ht="15.75" customHeight="1">
       <c r="E568" s="11"/>
       <c r="G568" s="12"/>
       <c r="H568" s="10"/>
     </row>
-    <row r="569">
+    <row r="569" spans="5:8" ht="15.75" customHeight="1">
       <c r="E569" s="11"/>
       <c r="G569" s="12"/>
       <c r="H569" s="10"/>
     </row>
-    <row r="570">
+    <row r="570" spans="5:8" ht="15.75" customHeight="1">
       <c r="E570" s="11"/>
       <c r="G570" s="12"/>
       <c r="H570" s="10"/>
     </row>
-    <row r="571">
+    <row r="571" spans="5:8" ht="15.75" customHeight="1">
       <c r="E571" s="11"/>
       <c r="G571" s="12"/>
       <c r="H571" s="10"/>
     </row>
-    <row r="572">
+    <row r="572" spans="5:8" ht="15.75" customHeight="1">
       <c r="E572" s="11"/>
       <c r="G572" s="12"/>
       <c r="H572" s="10"/>
     </row>
-    <row r="573">
+    <row r="573" spans="5:8" ht="15.75" customHeight="1">
       <c r="E573" s="11"/>
       <c r="G573" s="12"/>
       <c r="H573" s="10"/>
     </row>
-    <row r="574">
+    <row r="574" spans="5:8" ht="15.75" customHeight="1">
       <c r="E574" s="11"/>
       <c r="G574" s="12"/>
       <c r="H574" s="10"/>
     </row>
-    <row r="575">
+    <row r="575" spans="5:8" ht="15.75" customHeight="1">
       <c r="E575" s="11"/>
       <c r="G575" s="12"/>
       <c r="H575" s="10"/>
     </row>
-    <row r="576">
+    <row r="576" spans="5:8" ht="15.75" customHeight="1">
       <c r="E576" s="11"/>
       <c r="G576" s="12"/>
       <c r="H576" s="10"/>
     </row>
-    <row r="577">
+    <row r="577" spans="5:8" ht="15.75" customHeight="1">
       <c r="E577" s="11"/>
       <c r="G577" s="12"/>
       <c r="H577" s="10"/>
     </row>
-    <row r="578">
+    <row r="578" spans="5:8" ht="15.75" customHeight="1">
       <c r="E578" s="11"/>
       <c r="G578" s="12"/>
       <c r="H578" s="10"/>
     </row>
-    <row r="579">
+    <row r="579" spans="5:8" ht="15.75" customHeight="1">
       <c r="E579" s="11"/>
       <c r="G579" s="12"/>
       <c r="H579" s="10"/>
     </row>
-    <row r="580">
+    <row r="580" spans="5:8" ht="15.75" customHeight="1">
       <c r="E580" s="11"/>
       <c r="G580" s="12"/>
       <c r="H580" s="10"/>
     </row>
-    <row r="581">
+    <row r="581" spans="5:8" ht="15.75" customHeight="1">
       <c r="E581" s="11"/>
       <c r="G581" s="12"/>
       <c r="H581" s="10"/>
     </row>
-    <row r="582">
+    <row r="582" spans="5:8" ht="15.75" customHeight="1">
       <c r="E582" s="11"/>
       <c r="G582" s="12"/>
       <c r="H582" s="10"/>
     </row>
-    <row r="583">
+    <row r="583" spans="5:8" ht="15.75" customHeight="1">
       <c r="E583" s="11"/>
       <c r="G583" s="12"/>
       <c r="H583" s="10"/>
     </row>
-    <row r="584">
+    <row r="584" spans="5:8" ht="15.75" customHeight="1">
       <c r="E584" s="11"/>
       <c r="G584" s="12"/>
       <c r="H584" s="10"/>
     </row>
-    <row r="585">
+    <row r="585" spans="5:8" ht="15.75" customHeight="1">
       <c r="E585" s="11"/>
       <c r="G585" s="12"/>
       <c r="H585" s="10"/>
     </row>
-    <row r="586">
+    <row r="586" spans="5:8" ht="15.75" customHeight="1">
       <c r="E586" s="11"/>
       <c r="G586" s="12"/>
       <c r="H586" s="10"/>
     </row>
-    <row r="587">
+    <row r="587" spans="5:8" ht="15.75" customHeight="1">
       <c r="E587" s="11"/>
       <c r="G587" s="12"/>
       <c r="H587" s="10"/>
     </row>
-    <row r="588">
+    <row r="588" spans="5:8" ht="15.75" customHeight="1">
       <c r="E588" s="11"/>
       <c r="G588" s="12"/>
       <c r="H588" s="10"/>
     </row>
-    <row r="589">
+    <row r="589" spans="5:8" ht="15.75" customHeight="1">
       <c r="E589" s="11"/>
       <c r="G589" s="12"/>
       <c r="H589" s="10"/>
     </row>
-    <row r="590">
+    <row r="590" spans="5:8" ht="15.75" customHeight="1">
       <c r="E590" s="11"/>
       <c r="G590" s="12"/>
       <c r="H590" s="10"/>
     </row>
-    <row r="591">
+    <row r="591" spans="5:8" ht="15.75" customHeight="1">
       <c r="E591" s="11"/>
       <c r="G591" s="12"/>
       <c r="H591" s="10"/>
     </row>
-    <row r="592">
+    <row r="592" spans="5:8" ht="15.75" customHeight="1">
       <c r="E592" s="11"/>
       <c r="G592" s="12"/>
       <c r="H592" s="10"/>
     </row>
-    <row r="593">
+    <row r="593" spans="5:8" ht="15.75" customHeight="1">
       <c r="E593" s="11"/>
       <c r="G593" s="12"/>
       <c r="H593" s="10"/>
     </row>
-    <row r="594">
+    <row r="594" spans="5:8" ht="15.75" customHeight="1">
       <c r="E594" s="11"/>
       <c r="G594" s="12"/>
       <c r="H594" s="10"/>
     </row>
-    <row r="595">
+    <row r="595" spans="5:8" ht="15.75" customHeight="1">
       <c r="E595" s="11"/>
       <c r="G595" s="12"/>
       <c r="H595" s="10"/>
     </row>
-    <row r="596">
+    <row r="596" spans="5:8" ht="15.75" customHeight="1">
       <c r="E596" s="11"/>
       <c r="G596" s="12"/>
       <c r="H596" s="10"/>
     </row>
-    <row r="597">
+    <row r="597" spans="5:8" ht="15.75" customHeight="1">
       <c r="E597" s="11"/>
       <c r="G597" s="12"/>
       <c r="H597" s="10"/>
     </row>
-    <row r="598">
+    <row r="598" spans="5:8" ht="15.75" customHeight="1">
       <c r="E598" s="11"/>
       <c r="G598" s="12"/>
       <c r="H598" s="10"/>
     </row>
-    <row r="599">
+    <row r="599" spans="5:8" ht="15.75" customHeight="1">
       <c r="E599" s="11"/>
       <c r="G599" s="12"/>
       <c r="H599" s="10"/>
     </row>
-    <row r="600">
+    <row r="600" spans="5:8" ht="15.75" customHeight="1">
       <c r="E600" s="11"/>
       <c r="G600" s="12"/>
       <c r="H600" s="10"/>
     </row>
-    <row r="601">
+    <row r="601" spans="5:8" ht="15.75" customHeight="1">
       <c r="E601" s="11"/>
       <c r="G601" s="12"/>
       <c r="H601" s="10"/>
     </row>
-    <row r="602">
+    <row r="602" spans="5:8" ht="15.75" customHeight="1">
       <c r="E602" s="11"/>
       <c r="G602" s="12"/>
       <c r="H602" s="10"/>
     </row>
-    <row r="603">
+    <row r="603" spans="5:8" ht="15.75" customHeight="1">
       <c r="E603" s="11"/>
       <c r="G603" s="12"/>
       <c r="H603" s="10"/>
     </row>
-    <row r="604">
+    <row r="604" spans="5:8" ht="15.75" customHeight="1">
       <c r="E604" s="11"/>
       <c r="G604" s="12"/>
       <c r="H604" s="10"/>
     </row>
-    <row r="605">
+    <row r="605" spans="5:8" ht="15.75" customHeight="1">
       <c r="E605" s="11"/>
       <c r="G605" s="12"/>
       <c r="H605" s="10"/>
     </row>
-    <row r="606">
+    <row r="606" spans="5:8" ht="15.75" customHeight="1">
       <c r="E606" s="11"/>
       <c r="G606" s="12"/>
       <c r="H606" s="10"/>
     </row>
-    <row r="607">
+    <row r="607" spans="5:8" ht="15.75" customHeight="1">
       <c r="E607" s="11"/>
       <c r="G607" s="12"/>
       <c r="H607" s="10"/>
     </row>
-    <row r="608">
+    <row r="608" spans="5:8" ht="15.75" customHeight="1">
       <c r="E608" s="11"/>
       <c r="G608" s="12"/>
       <c r="H608" s="10"/>
     </row>
-    <row r="609">
+    <row r="609" spans="5:8" ht="15.75" customHeight="1">
       <c r="E609" s="11"/>
       <c r="G609" s="12"/>
       <c r="H609" s="10"/>
     </row>
-    <row r="610">
+    <row r="610" spans="5:8" ht="15.75" customHeight="1">
       <c r="E610" s="11"/>
       <c r="G610" s="12"/>
       <c r="H610" s="10"/>
     </row>
-    <row r="611">
+    <row r="611" spans="5:8" ht="15.75" customHeight="1">
       <c r="E611" s="11"/>
       <c r="G611" s="12"/>
       <c r="H611" s="10"/>
     </row>
-    <row r="612">
+    <row r="612" spans="5:8" ht="15.75" customHeight="1">
       <c r="E612" s="11"/>
       <c r="G612" s="12"/>
       <c r="H612" s="10"/>
     </row>
-    <row r="613">
+    <row r="613" spans="5:8" ht="15.75" customHeight="1">
       <c r="E613" s="11"/>
       <c r="G613" s="12"/>
       <c r="H613" s="10"/>
     </row>
-    <row r="614">
+    <row r="614" spans="5:8" ht="15.75" customHeight="1">
       <c r="E614" s="11"/>
       <c r="G614" s="12"/>
       <c r="H614" s="10"/>
     </row>
-    <row r="615">
+    <row r="615" spans="5:8" ht="15.75" customHeight="1">
       <c r="E615" s="11"/>
       <c r="G615" s="12"/>
       <c r="H615" s="10"/>
     </row>
-    <row r="616">
+    <row r="616" spans="5:8" ht="15.75" customHeight="1">
       <c r="E616" s="11"/>
       <c r="G616" s="12"/>
       <c r="H616" s="10"/>
     </row>
-    <row r="617">
+    <row r="617" spans="5:8" ht="15.75" customHeight="1">
       <c r="E617" s="11"/>
       <c r="G617" s="12"/>
       <c r="H617" s="10"/>
     </row>
-    <row r="618">
+    <row r="618" spans="5:8" ht="15.75" customHeight="1">
       <c r="E618" s="11"/>
       <c r="G618" s="12"/>
       <c r="H618" s="10"/>
     </row>
-    <row r="619">
+    <row r="619" spans="5:8" ht="15.75" customHeight="1">
       <c r="E619" s="11"/>
       <c r="G619" s="12"/>
       <c r="H619" s="10"/>
     </row>
-    <row r="620">
+    <row r="620" spans="5:8" ht="15.75" customHeight="1">
       <c r="E620" s="11"/>
       <c r="G620" s="12"/>
       <c r="H620" s="10"/>
     </row>
-    <row r="621">
+    <row r="621" spans="5:8" ht="15.75" customHeight="1">
       <c r="E621" s="11"/>
       <c r="G621" s="12"/>
       <c r="H621" s="10"/>
     </row>
-    <row r="622">
+    <row r="622" spans="5:8" ht="15.75" customHeight="1">
       <c r="E622" s="11"/>
       <c r="G622" s="12"/>
       <c r="H622" s="10"/>
     </row>
-    <row r="623">
+    <row r="623" spans="5:8" ht="15.75" customHeight="1">
       <c r="E623" s="11"/>
       <c r="G623" s="12"/>
       <c r="H623" s="10"/>
     </row>
-    <row r="624">
+    <row r="624" spans="5:8" ht="15.75" customHeight="1">
       <c r="E624" s="11"/>
       <c r="G624" s="12"/>
       <c r="H624" s="10"/>
     </row>
-    <row r="625">
+    <row r="625" spans="5:8" ht="15.75" customHeight="1">
       <c r="E625" s="11"/>
       <c r="G625" s="12"/>
       <c r="H625" s="10"/>
     </row>
-    <row r="626">
+    <row r="626" spans="5:8" ht="15.75" customHeight="1">
       <c r="E626" s="11"/>
       <c r="G626" s="12"/>
       <c r="H626" s="10"/>
     </row>
-    <row r="627">
+    <row r="627" spans="5:8" ht="15.75" customHeight="1">
       <c r="E627" s="11"/>
       <c r="G627" s="12"/>
       <c r="H627" s="10"/>
     </row>
-    <row r="628">
+    <row r="628" spans="5:8" ht="15.75" customHeight="1">
       <c r="E628" s="11"/>
       <c r="G628" s="12"/>
       <c r="H628" s="10"/>
     </row>
-    <row r="629">
+    <row r="629" spans="5:8" ht="15.75" customHeight="1">
       <c r="E629" s="11"/>
       <c r="G629" s="12"/>
       <c r="H629" s="10"/>
     </row>
-    <row r="630">
+    <row r="630" spans="5:8" ht="15.75" customHeight="1">
       <c r="E630" s="11"/>
       <c r="G630" s="12"/>
       <c r="H630" s="10"/>
     </row>
-    <row r="631">
+    <row r="631" spans="5:8" ht="15.75" customHeight="1">
       <c r="E631" s="11"/>
       <c r="G631" s="12"/>
       <c r="H631" s="10"/>
     </row>
-    <row r="632">
+    <row r="632" spans="5:8" ht="15.75" customHeight="1">
       <c r="E632" s="11"/>
       <c r="G632" s="12"/>
       <c r="H632" s="10"/>
     </row>
-    <row r="633">
+    <row r="633" spans="5:8" ht="15.75" customHeight="1">
       <c r="E633" s="11"/>
       <c r="G633" s="12"/>
       <c r="H633" s="10"/>
     </row>
-    <row r="634">
+    <row r="634" spans="5:8" ht="15.75" customHeight="1">
       <c r="E634" s="11"/>
       <c r="G634" s="12"/>
       <c r="H634" s="10"/>
     </row>
-    <row r="635">
+    <row r="635" spans="5:8" ht="15.75" customHeight="1">
       <c r="E635" s="11"/>
       <c r="G635" s="12"/>
       <c r="H635" s="10"/>
     </row>
-    <row r="636">
+    <row r="636" spans="5:8" ht="15.75" customHeight="1">
       <c r="E636" s="11"/>
       <c r="G636" s="12"/>
       <c r="H636" s="10"/>
     </row>
-    <row r="637">
+    <row r="637" spans="5:8" ht="15.75" customHeight="1">
       <c r="E637" s="11"/>
       <c r="G637" s="12"/>
       <c r="H637" s="10"/>
     </row>
-    <row r="638">
+    <row r="638" spans="5:8" ht="15.75" customHeight="1">
       <c r="E638" s="11"/>
       <c r="G638" s="12"/>
       <c r="H638" s="10"/>
     </row>
-    <row r="639">
+    <row r="639" spans="5:8" ht="15.75" customHeight="1">
       <c r="E639" s="11"/>
       <c r="G639" s="12"/>
       <c r="H639" s="10"/>
     </row>
-    <row r="640">
+    <row r="640" spans="5:8" ht="15.75" customHeight="1">
       <c r="E640" s="11"/>
       <c r="G640" s="12"/>
       <c r="H640" s="10"/>
     </row>
-    <row r="641">
+    <row r="641" spans="5:8" ht="15.75" customHeight="1">
       <c r="E641" s="11"/>
       <c r="G641" s="12"/>
       <c r="H641" s="10"/>
     </row>
-    <row r="642">
+    <row r="642" spans="5:8" ht="15.75" customHeight="1">
       <c r="E642" s="11"/>
       <c r="G642" s="12"/>
       <c r="H642" s="10"/>
     </row>
-    <row r="643">
+    <row r="643" spans="5:8" ht="15.75" customHeight="1">
       <c r="E643" s="11"/>
       <c r="G643" s="12"/>
       <c r="H643" s="10"/>
     </row>
-    <row r="644">
+    <row r="644" spans="5:8" ht="15.75" customHeight="1">
       <c r="E644" s="11"/>
       <c r="G644" s="12"/>
       <c r="H644" s="10"/>
     </row>
-    <row r="645">
+    <row r="645" spans="5:8" ht="15.75" customHeight="1">
       <c r="E645" s="11"/>
       <c r="G645" s="12"/>
       <c r="H645" s="10"/>
     </row>
-    <row r="646">
+    <row r="646" spans="5:8" ht="15.75" customHeight="1">
       <c r="E646" s="11"/>
       <c r="G646" s="12"/>
       <c r="H646" s="10"/>
     </row>
-    <row r="647">
+    <row r="647" spans="5:8" ht="15.75" customHeight="1">
       <c r="E647" s="11"/>
       <c r="G647" s="12"/>
       <c r="H647" s="10"/>
     </row>
-    <row r="648">
+    <row r="648" spans="5:8" ht="15.75" customHeight="1">
       <c r="E648" s="11"/>
       <c r="G648" s="12"/>
       <c r="H648" s="10"/>
     </row>
-    <row r="649">
+    <row r="649" spans="5:8" ht="15.75" customHeight="1">
       <c r="E649" s="11"/>
       <c r="G649" s="12"/>
       <c r="H649" s="10"/>
     </row>
-    <row r="650">
+    <row r="650" spans="5:8" ht="15.75" customHeight="1">
       <c r="E650" s="11"/>
       <c r="G650" s="12"/>
       <c r="H650" s="10"/>
     </row>
-    <row r="651">
+    <row r="651" spans="5:8" ht="15.75" customHeight="1">
       <c r="E651" s="11"/>
       <c r="G651" s="12"/>
       <c r="H651" s="10"/>
     </row>
-    <row r="652">
+    <row r="652" spans="5:8" ht="15.75" customHeight="1">
       <c r="E652" s="11"/>
       <c r="G652" s="12"/>
       <c r="H652" s="10"/>
     </row>
-    <row r="653">
+    <row r="653" spans="5:8" ht="15.75" customHeight="1">
       <c r="E653" s="11"/>
       <c r="G653" s="12"/>
       <c r="H653" s="10"/>
     </row>
-    <row r="654">
+    <row r="654" spans="5:8" ht="15.75" customHeight="1">
       <c r="E654" s="11"/>
       <c r="G654" s="12"/>
       <c r="H654" s="10"/>
     </row>
-    <row r="655">
+    <row r="655" spans="5:8" ht="15.75" customHeight="1">
       <c r="E655" s="11"/>
       <c r="G655" s="12"/>
       <c r="H655" s="10"/>
     </row>
-    <row r="656">
+    <row r="656" spans="5:8" ht="15.75" customHeight="1">
       <c r="E656" s="11"/>
       <c r="G656" s="12"/>
       <c r="H656" s="10"/>
     </row>
-    <row r="657">
+    <row r="657" spans="5:8" ht="15.75" customHeight="1">
       <c r="E657" s="11"/>
       <c r="G657" s="12"/>
       <c r="H657" s="10"/>
     </row>
-    <row r="658">
+    <row r="658" spans="5:8" ht="15.75" customHeight="1">
       <c r="E658" s="11"/>
       <c r="G658" s="12"/>
       <c r="H658" s="10"/>
     </row>
-    <row r="659">
+    <row r="659" spans="5:8" ht="15.75" customHeight="1">
       <c r="E659" s="11"/>
       <c r="G659" s="12"/>
       <c r="H659" s="10"/>
     </row>
-    <row r="660">
+    <row r="660" spans="5:8" ht="15.75" customHeight="1">
       <c r="E660" s="11"/>
       <c r="G660" s="12"/>
       <c r="H660" s="10"/>
     </row>
-    <row r="661">
+    <row r="661" spans="5:8" ht="15.75" customHeight="1">
       <c r="E661" s="11"/>
       <c r="G661" s="12"/>
       <c r="H661" s="10"/>
     </row>
-    <row r="662">
+    <row r="662" spans="5:8" ht="15.75" customHeight="1">
       <c r="E662" s="11"/>
       <c r="G662" s="12"/>
       <c r="H662" s="10"/>
     </row>
-    <row r="663">
+    <row r="663" spans="5:8" ht="15.75" customHeight="1">
       <c r="E663" s="11"/>
       <c r="G663" s="12"/>
       <c r="H663" s="10"/>
     </row>
-    <row r="664">
+    <row r="664" spans="5:8" ht="15.75" customHeight="1">
       <c r="E664" s="11"/>
       <c r="G664" s="12"/>
       <c r="H664" s="10"/>
     </row>
-    <row r="665">
+    <row r="665" spans="5:8" ht="15.75" customHeight="1">
       <c r="E665" s="11"/>
       <c r="G665" s="12"/>
       <c r="H665" s="10"/>
     </row>
-    <row r="666">
+    <row r="666" spans="5:8" ht="15.75" customHeight="1">
       <c r="E666" s="11"/>
       <c r="G666" s="12"/>
       <c r="H666" s="10"/>
     </row>
-    <row r="667">
+    <row r="667" spans="5:8" ht="15.75" customHeight="1">
       <c r="E667" s="11"/>
       <c r="G667" s="12"/>
       <c r="H667" s="10"/>
     </row>
-    <row r="668">
+    <row r="668" spans="5:8" ht="15.75" customHeight="1">
       <c r="E668" s="11"/>
       <c r="G668" s="12"/>
       <c r="H668" s="10"/>
     </row>
-    <row r="669">
+    <row r="669" spans="5:8" ht="15.75" customHeight="1">
       <c r="E669" s="11"/>
       <c r="G669" s="12"/>
       <c r="H669" s="10"/>
     </row>
-    <row r="670">
+    <row r="670" spans="5:8" ht="15.75" customHeight="1">
       <c r="E670" s="11"/>
       <c r="G670" s="12"/>
       <c r="H670" s="10"/>
     </row>
-    <row r="671">
+    <row r="671" spans="5:8" ht="15.75" customHeight="1">
       <c r="E671" s="11"/>
       <c r="G671" s="12"/>
       <c r="H671" s="10"/>
     </row>
-    <row r="672">
+    <row r="672" spans="5:8" ht="15.75" customHeight="1">
       <c r="E672" s="11"/>
       <c r="G672" s="12"/>
       <c r="H672" s="10"/>
     </row>
-    <row r="673">
+    <row r="673" spans="5:8" ht="15.75" customHeight="1">
       <c r="E673" s="11"/>
       <c r="G673" s="12"/>
       <c r="H673" s="10"/>
     </row>
-    <row r="674">
+    <row r="674" spans="5:8" ht="15.75" customHeight="1">
       <c r="E674" s="11"/>
       <c r="G674" s="12"/>
       <c r="H674" s="10"/>
     </row>
-    <row r="675">
+    <row r="675" spans="5:8" ht="15.75" customHeight="1">
       <c r="E675" s="11"/>
       <c r="G675" s="12"/>
       <c r="H675" s="10"/>
     </row>
-    <row r="676">
+    <row r="676" spans="5:8" ht="15.75" customHeight="1">
       <c r="E676" s="11"/>
       <c r="G676" s="12"/>
       <c r="H676" s="10"/>
     </row>
-    <row r="677">
+    <row r="677" spans="5:8" ht="15.75" customHeight="1">
       <c r="E677" s="11"/>
       <c r="G677" s="12"/>
       <c r="H677" s="10"/>
     </row>
-    <row r="678">
+    <row r="678" spans="5:8" ht="15.75" customHeight="1">
       <c r="E678" s="11"/>
       <c r="G678" s="12"/>
       <c r="H678" s="10"/>
     </row>
-    <row r="679">
+    <row r="679" spans="5:8" ht="15.75" customHeight="1">
       <c r="E679" s="11"/>
       <c r="G679" s="12"/>
       <c r="H679" s="10"/>
     </row>
-    <row r="680">
+    <row r="680" spans="5:8" ht="15.75" customHeight="1">
       <c r="E680" s="11"/>
       <c r="G680" s="12"/>
       <c r="H680" s="10"/>
     </row>
-    <row r="681">
+    <row r="681" spans="5:8" ht="15.75" customHeight="1">
       <c r="E681" s="11"/>
       <c r="G681" s="12"/>
       <c r="H681" s="10"/>
     </row>
-    <row r="682">
+    <row r="682" spans="5:8" ht="15.75" customHeight="1">
       <c r="E682" s="11"/>
       <c r="G682" s="12"/>
       <c r="H682" s="10"/>
     </row>
-    <row r="683">
+    <row r="683" spans="5:8" ht="15.75" customHeight="1">
       <c r="E683" s="11"/>
       <c r="G683" s="12"/>
       <c r="H683" s="10"/>
     </row>
-    <row r="684">
+    <row r="684" spans="5:8" ht="15.75" customHeight="1">
       <c r="E684" s="11"/>
       <c r="G684" s="12"/>
       <c r="H684" s="10"/>
     </row>
-    <row r="685">
+    <row r="685" spans="5:8" ht="15.75" customHeight="1">
       <c r="E685" s="11"/>
       <c r="G685" s="12"/>
       <c r="H685" s="10"/>
     </row>
-    <row r="686">
+    <row r="686" spans="5:8" ht="15.75" customHeight="1">
       <c r="E686" s="11"/>
       <c r="G686" s="12"/>
       <c r="H686" s="10"/>
     </row>
-    <row r="687">
+    <row r="687" spans="5:8" ht="15.75" customHeight="1">
       <c r="E687" s="11"/>
       <c r="G687" s="12"/>
       <c r="H687" s="10"/>
     </row>
-    <row r="688">
+    <row r="688" spans="5:8" ht="15.75" customHeight="1">
       <c r="E688" s="11"/>
       <c r="G688" s="12"/>
       <c r="H688" s="10"/>
     </row>
-    <row r="689">
+    <row r="689" spans="5:8" ht="15.75" customHeight="1">
       <c r="E689" s="11"/>
       <c r="G689" s="12"/>
       <c r="H689" s="10"/>
     </row>
-    <row r="690">
+    <row r="690" spans="5:8" ht="15.75" customHeight="1">
       <c r="E690" s="11"/>
       <c r="G690" s="12"/>
       <c r="H690" s="10"/>
     </row>
-    <row r="691">
+    <row r="691" spans="5:8" ht="15.75" customHeight="1">
       <c r="E691" s="11"/>
       <c r="G691" s="12"/>
       <c r="H691" s="10"/>
     </row>
-    <row r="692">
+    <row r="692" spans="5:8" ht="15.75" customHeight="1">
       <c r="E692" s="11"/>
       <c r="G692" s="12"/>
       <c r="H692" s="10"/>
     </row>
-    <row r="693">
+    <row r="693" spans="5:8" ht="15.75" customHeight="1">
       <c r="E693" s="11"/>
       <c r="G693" s="12"/>
       <c r="H693" s="10"/>
     </row>
-    <row r="694">
+    <row r="694" spans="5:8" ht="15.75" customHeight="1">
       <c r="E694" s="11"/>
       <c r="G694" s="12"/>
       <c r="H694" s="10"/>
     </row>
-    <row r="695">
+    <row r="695" spans="5:8" ht="15.75" customHeight="1">
       <c r="E695" s="11"/>
       <c r="G695" s="12"/>
       <c r="H695" s="10"/>
     </row>
-    <row r="696">
+    <row r="696" spans="5:8" ht="15.75" customHeight="1">
       <c r="E696" s="11"/>
       <c r="G696" s="12"/>
       <c r="H696" s="10"/>
     </row>
-    <row r="697">
+    <row r="697" spans="5:8" ht="15.75" customHeight="1">
       <c r="E697" s="11"/>
       <c r="G697" s="12"/>
       <c r="H697" s="10"/>
     </row>
-    <row r="698">
+    <row r="698" spans="5:8" ht="15.75" customHeight="1">
       <c r="E698" s="11"/>
       <c r="G698" s="12"/>
       <c r="H698" s="10"/>
     </row>
-    <row r="699">
+    <row r="699" spans="5:8" ht="15.75" customHeight="1">
       <c r="E699" s="11"/>
       <c r="G699" s="12"/>
       <c r="H699" s="10"/>
     </row>
-    <row r="700">
+    <row r="700" spans="5:8" ht="15.75" customHeight="1">
       <c r="E700" s="11"/>
       <c r="G700" s="12"/>
       <c r="H700" s="10"/>
     </row>
-    <row r="701">
+    <row r="701" spans="5:8" ht="15.75" customHeight="1">
       <c r="E701" s="11"/>
       <c r="G701" s="12"/>
       <c r="H701" s="10"/>
     </row>
-    <row r="702">
+    <row r="702" spans="5:8" ht="15.75" customHeight="1">
       <c r="E702" s="11"/>
       <c r="G702" s="12"/>
       <c r="H702" s="10"/>
     </row>
-    <row r="703">
+    <row r="703" spans="5:8" ht="15.75" customHeight="1">
       <c r="E703" s="11"/>
       <c r="G703" s="12"/>
       <c r="H703" s="10"/>
     </row>
-    <row r="704">
+    <row r="704" spans="5:8" ht="15.75" customHeight="1">
       <c r="E704" s="11"/>
       <c r="G704" s="12"/>
       <c r="H704" s="10"/>
     </row>
-    <row r="705">
+    <row r="705" spans="5:8" ht="15.75" customHeight="1">
       <c r="E705" s="11"/>
       <c r="G705" s="12"/>
       <c r="H705" s="10"/>
     </row>
-    <row r="706">
+    <row r="706" spans="5:8" ht="15.75" customHeight="1">
       <c r="E706" s="11"/>
       <c r="G706" s="12"/>
       <c r="H706" s="10"/>
     </row>
-    <row r="707">
+    <row r="707" spans="5:8" ht="15.75" customHeight="1">
       <c r="E707" s="11"/>
       <c r="G707" s="12"/>
       <c r="H707" s="10"/>
     </row>
-    <row r="708">
+    <row r="708" spans="5:8" ht="15.75" customHeight="1">
       <c r="E708" s="11"/>
       <c r="G708" s="12"/>
       <c r="H708" s="10"/>
     </row>
-    <row r="709">
+    <row r="709" spans="5:8" ht="15.75" customHeight="1">
       <c r="E709" s="11"/>
       <c r="G709" s="12"/>
       <c r="H709" s="10"/>
     </row>
-    <row r="710">
+    <row r="710" spans="5:8" ht="15.75" customHeight="1">
       <c r="E710" s="11"/>
       <c r="G710" s="12"/>
       <c r="H710" s="10"/>
     </row>
-    <row r="711">
+    <row r="711" spans="5:8" ht="15.75" customHeight="1">
       <c r="E711" s="11"/>
       <c r="G711" s="12"/>
       <c r="H711" s="10"/>
     </row>
-    <row r="712">
+    <row r="712" spans="5:8" ht="15.75" customHeight="1">
       <c r="E712" s="11"/>
       <c r="G712" s="12"/>
       <c r="H712" s="10"/>
     </row>
-    <row r="713">
+    <row r="713" spans="5:8" ht="15.75" customHeight="1">
       <c r="E713" s="11"/>
       <c r="G713" s="12"/>
       <c r="H713" s="10"/>
     </row>
-    <row r="714">
+    <row r="714" spans="5:8" ht="15.75" customHeight="1">
       <c r="E714" s="11"/>
       <c r="G714" s="12"/>
       <c r="H714" s="10"/>
     </row>
-    <row r="715">
+    <row r="715" spans="5:8" ht="15.75" customHeight="1">
       <c r="E715" s="11"/>
       <c r="G715" s="12"/>
       <c r="H715" s="10"/>
     </row>
-    <row r="716">
+    <row r="716" spans="5:8" ht="15.75" customHeight="1">
       <c r="E716" s="11"/>
       <c r="G716" s="12"/>
       <c r="H716" s="10"/>
     </row>
-    <row r="717">
+    <row r="717" spans="5:8" ht="15.75" customHeight="1">
       <c r="E717" s="11"/>
       <c r="G717" s="12"/>
       <c r="H717" s="10"/>
     </row>
-    <row r="718">
+    <row r="718" spans="5:8" ht="15.75" customHeight="1">
       <c r="E718" s="11"/>
       <c r="G718" s="12"/>
       <c r="H718" s="10"/>
     </row>
-    <row r="719">
+    <row r="719" spans="5:8" ht="15.75" customHeight="1">
       <c r="E719" s="11"/>
       <c r="G719" s="12"/>
       <c r="H719" s="10"/>
     </row>
-    <row r="720">
+    <row r="720" spans="5:8" ht="15.75" customHeight="1">
       <c r="E720" s="11"/>
       <c r="G720" s="12"/>
       <c r="H720" s="10"/>
     </row>
-    <row r="721">
+    <row r="721" spans="5:8" ht="15.75" customHeight="1">
       <c r="E721" s="11"/>
       <c r="G721" s="12"/>
       <c r="H721" s="10"/>
     </row>
-    <row r="722">
+    <row r="722" spans="5:8" ht="15.75" customHeight="1">
       <c r="E722" s="11"/>
       <c r="G722" s="12"/>
       <c r="H722" s="10"/>
     </row>
-    <row r="723">
+    <row r="723" spans="5:8" ht="15.75" customHeight="1">
       <c r="E723" s="11"/>
       <c r="G723" s="12"/>
       <c r="H723" s="10"/>
     </row>
-    <row r="724">
+    <row r="724" spans="5:8" ht="15.75" customHeight="1">
       <c r="E724" s="11"/>
       <c r="G724" s="12"/>
       <c r="H724" s="10"/>
     </row>
-    <row r="725">
+    <row r="725" spans="5:8" ht="15.75" customHeight="1">
       <c r="E725" s="11"/>
       <c r="G725" s="12"/>
       <c r="H725" s="10"/>
     </row>
-    <row r="726">
+    <row r="726" spans="5:8" ht="15.75" customHeight="1">
       <c r="E726" s="11"/>
       <c r="G726" s="12"/>
       <c r="H726" s="10"/>
     </row>
-    <row r="727">
+    <row r="727" spans="5:8" ht="15.75" customHeight="1">
       <c r="E727" s="11"/>
       <c r="G727" s="12"/>
       <c r="H727" s="10"/>
     </row>
-    <row r="728">
+    <row r="728" spans="5:8" ht="15.75" customHeight="1">
       <c r="E728" s="11"/>
       <c r="G728" s="12"/>
       <c r="H728" s="10"/>
     </row>
-    <row r="729">
+    <row r="729" spans="5:8" ht="15.75" customHeight="1">
       <c r="E729" s="11"/>
       <c r="G729" s="12"/>
       <c r="H729" s="10"/>
     </row>
-    <row r="730">
+    <row r="730" spans="5:8" ht="15.75" customHeight="1">
       <c r="E730" s="11"/>
       <c r="G730" s="12"/>
       <c r="H730" s="10"/>
     </row>
-    <row r="731">
+    <row r="731" spans="5:8" ht="15.75" customHeight="1">
       <c r="E731" s="11"/>
       <c r="G731" s="12"/>
       <c r="H731" s="10"/>
     </row>
-    <row r="732">
+    <row r="732" spans="5:8" ht="15.75" customHeight="1">
       <c r="E732" s="11"/>
       <c r="G732" s="12"/>
       <c r="H732" s="10"/>
     </row>
-    <row r="733">
+    <row r="733" spans="5:8" ht="15.75" customHeight="1">
       <c r="E733" s="11"/>
       <c r="G733" s="12"/>
       <c r="H733" s="10"/>
     </row>
-    <row r="734">
+    <row r="734" spans="5:8" ht="15.75" customHeight="1">
       <c r="E734" s="11"/>
       <c r="G734" s="12"/>
       <c r="H734" s="10"/>
     </row>
-    <row r="735">
+    <row r="735" spans="5:8" ht="15.75" customHeight="1">
       <c r="E735" s="11"/>
       <c r="G735" s="12"/>
       <c r="H735" s="10"/>
     </row>
-    <row r="736">
+    <row r="736" spans="5:8" ht="15.75" customHeight="1">
       <c r="E736" s="11"/>
       <c r="G736" s="12"/>
       <c r="H736" s="10"/>
     </row>
-    <row r="737">
+    <row r="737" spans="5:8" ht="15.75" customHeight="1">
       <c r="E737" s="11"/>
       <c r="G737" s="12"/>
       <c r="H737" s="10"/>
     </row>
-    <row r="738">
+    <row r="738" spans="5:8" ht="15.75" customHeight="1">
       <c r="E738" s="11"/>
       <c r="G738" s="12"/>
       <c r="H738" s="10"/>
     </row>
-    <row r="739">
+    <row r="739" spans="5:8" ht="15.75" customHeight="1">
       <c r="E739" s="11"/>
       <c r="G739" s="12"/>
       <c r="H739" s="10"/>
     </row>
-    <row r="740">
+    <row r="740" spans="5:8" ht="15.75" customHeight="1">
       <c r="E740" s="11"/>
       <c r="G740" s="12"/>
       <c r="H740" s="10"/>
     </row>
-    <row r="741">
+    <row r="741" spans="5:8" ht="15.75" customHeight="1">
       <c r="E741" s="11"/>
       <c r="G741" s="12"/>
       <c r="H741" s="10"/>
     </row>
-    <row r="742">
+    <row r="742" spans="5:8" ht="15.75" customHeight="1">
       <c r="E742" s="11"/>
       <c r="G742" s="12"/>
       <c r="H742" s="10"/>
     </row>
-    <row r="743">
+    <row r="743" spans="5:8" ht="15.75" customHeight="1">
       <c r="E743" s="11"/>
       <c r="G743" s="12"/>
       <c r="H743" s="10"/>
     </row>
-    <row r="744">
+    <row r="744" spans="5:8" ht="15.75" customHeight="1">
       <c r="E744" s="11"/>
       <c r="G744" s="12"/>
       <c r="H744" s="10"/>
     </row>
-    <row r="745">
+    <row r="745" spans="5:8" ht="15.75" customHeight="1">
       <c r="E745" s="11"/>
       <c r="G745" s="12"/>
       <c r="H745" s="10"/>
     </row>
-    <row r="746">
+    <row r="746" spans="5:8" ht="15.75" customHeight="1">
       <c r="E746" s="11"/>
       <c r="G746" s="12"/>
       <c r="H746" s="10"/>
     </row>
-    <row r="747">
+    <row r="747" spans="5:8" ht="15.75" customHeight="1">
       <c r="E747" s="11"/>
       <c r="G747" s="12"/>
       <c r="H747" s="10"/>
     </row>
-    <row r="748">
+    <row r="748" spans="5:8" ht="15.75" customHeight="1">
       <c r="E748" s="11"/>
       <c r="G748" s="12"/>
       <c r="H748" s="10"/>
     </row>
-    <row r="749">
+    <row r="749" spans="5:8" ht="15.75" customHeight="1">
       <c r="E749" s="11"/>
       <c r="G749" s="12"/>
       <c r="H749" s="10"/>
     </row>
-    <row r="750">
+    <row r="750" spans="5:8" ht="15.75" customHeight="1">
       <c r="E750" s="11"/>
       <c r="G750" s="12"/>
       <c r="H750" s="10"/>
     </row>
-    <row r="751">
+    <row r="751" spans="5:8" ht="15.75" customHeight="1">
       <c r="E751" s="11"/>
       <c r="G751" s="12"/>
       <c r="H751" s="10"/>
     </row>
-    <row r="752">
+    <row r="752" spans="5:8" ht="15.75" customHeight="1">
       <c r="E752" s="11"/>
       <c r="G752" s="12"/>
       <c r="H752" s="10"/>
     </row>
-    <row r="753">
+    <row r="753" spans="5:8" ht="15.75" customHeight="1">
       <c r="E753" s="11"/>
       <c r="G753" s="12"/>
       <c r="H753" s="10"/>
     </row>
-    <row r="754">
+    <row r="754" spans="5:8" ht="15.75" customHeight="1">
       <c r="E754" s="11"/>
       <c r="G754" s="12"/>
       <c r="H754" s="10"/>
     </row>
-    <row r="755">
+    <row r="755" spans="5:8" ht="15.75" customHeight="1">
       <c r="E755" s="11"/>
       <c r="G755" s="12"/>
       <c r="H755" s="10"/>
     </row>
-    <row r="756">
+    <row r="756" spans="5:8" ht="15.75" customHeight="1">
       <c r="E756" s="11"/>
       <c r="G756" s="12"/>
       <c r="H756" s="10"/>
     </row>
-    <row r="757">
+    <row r="757" spans="5:8" ht="15.75" customHeight="1">
       <c r="E757" s="11"/>
       <c r="G757" s="12"/>
       <c r="H757" s="10"/>
     </row>
-    <row r="758">
+    <row r="758" spans="5:8" ht="15.75" customHeight="1">
       <c r="E758" s="11"/>
       <c r="G758" s="12"/>
       <c r="H758" s="10"/>
     </row>
-    <row r="759">
+    <row r="759" spans="5:8" ht="15.75" customHeight="1">
       <c r="E759" s="11"/>
       <c r="G759" s="12"/>
       <c r="H759" s="10"/>
     </row>
-    <row r="760">
+    <row r="760" spans="5:8" ht="15.75" customHeight="1">
       <c r="E760" s="11"/>
       <c r="G760" s="12"/>
       <c r="H760" s="10"/>
     </row>
-    <row r="761">
+    <row r="761" spans="5:8" ht="15.75" customHeight="1">
       <c r="E761" s="11"/>
       <c r="G761" s="12"/>
       <c r="H761" s="10"/>
     </row>
-    <row r="762">
+    <row r="762" spans="5:8" ht="15.75" customHeight="1">
       <c r="E762" s="11"/>
       <c r="G762" s="12"/>
       <c r="H762" s="10"/>
     </row>
-    <row r="763">
+    <row r="763" spans="5:8" ht="15.75" customHeight="1">
       <c r="E763" s="11"/>
       <c r="G763" s="12"/>
       <c r="H763" s="10"/>
     </row>
-    <row r="764">
+    <row r="764" spans="5:8" ht="15.75" customHeight="1">
       <c r="E764" s="11"/>
       <c r="G764" s="12"/>
       <c r="H764" s="10"/>
     </row>
-    <row r="765">
+    <row r="765" spans="5:8" ht="15.75" customHeight="1">
       <c r="E765" s="11"/>
       <c r="G765" s="12"/>
       <c r="H765" s="10"/>
     </row>
-    <row r="766">
+    <row r="766" spans="5:8" ht="15.75" customHeight="1">
       <c r="E766" s="11"/>
       <c r="G766" s="12"/>
       <c r="H766" s="10"/>
     </row>
-    <row r="767">
+    <row r="767" spans="5:8" ht="15.75" customHeight="1">
       <c r="E767" s="11"/>
       <c r="G767" s="12"/>
       <c r="H767" s="10"/>
     </row>
-    <row r="768">
+    <row r="768" spans="5:8" ht="15.75" customHeight="1">
       <c r="E768" s="11"/>
       <c r="G768" s="12"/>
       <c r="H768" s="10"/>
     </row>
-    <row r="769">
+    <row r="769" spans="5:8" ht="15.75" customHeight="1">
       <c r="E769" s="11"/>
       <c r="G769" s="12"/>
       <c r="H769" s="10"/>
     </row>
-    <row r="770">
+    <row r="770" spans="5:8" ht="15.75" customHeight="1">
       <c r="E770" s="11"/>
       <c r="G770" s="12"/>
       <c r="H770" s="10"/>
     </row>
-    <row r="771">
+    <row r="771" spans="5:8" ht="15.75" customHeight="1">
       <c r="E771" s="11"/>
       <c r="G771" s="12"/>
       <c r="H771" s="10"/>
     </row>
-    <row r="772">
+    <row r="772" spans="5:8" ht="15.75" customHeight="1">
       <c r="E772" s="11"/>
       <c r="G772" s="12"/>
       <c r="H772" s="10"/>
     </row>
-    <row r="773">
+    <row r="773" spans="5:8" ht="15.75" customHeight="1">
       <c r="E773" s="11"/>
       <c r="G773" s="12"/>
       <c r="H773" s="10"/>
     </row>
-    <row r="774">
+    <row r="774" spans="5:8" ht="15.75" customHeight="1">
       <c r="E774" s="11"/>
       <c r="G774" s="12"/>
       <c r="H774" s="10"/>
     </row>
-    <row r="775">
+    <row r="775" spans="5:8" ht="15.75" customHeight="1">
       <c r="E775" s="11"/>
       <c r="G775" s="12"/>
       <c r="H775" s="10"/>
     </row>
-    <row r="776">
+    <row r="776" spans="5:8" ht="15.75" customHeight="1">
       <c r="E776" s="11"/>
       <c r="G776" s="12"/>
       <c r="H776" s="10"/>
     </row>
-    <row r="777">
+    <row r="777" spans="5:8" ht="15.75" customHeight="1">
       <c r="E777" s="11"/>
       <c r="G777" s="12"/>
       <c r="H777" s="10"/>
     </row>
-    <row r="778">
+    <row r="778" spans="5:8" ht="15.75" customHeight="1">
       <c r="E778" s="11"/>
       <c r="G778" s="12"/>
       <c r="H778" s="10"/>
     </row>
-    <row r="779">
+    <row r="779" spans="5:8" ht="15.75" customHeight="1">
       <c r="E779" s="11"/>
       <c r="G779" s="12"/>
       <c r="H779" s="10"/>
     </row>
-    <row r="780">
+    <row r="780" spans="5:8" ht="15.75" customHeight="1">
       <c r="E780" s="11"/>
       <c r="G780" s="12"/>
       <c r="H780" s="10"/>
     </row>
-    <row r="781">
+    <row r="781" spans="5:8" ht="15.75" customHeight="1">
       <c r="E781" s="11"/>
       <c r="G781" s="12"/>
       <c r="H781" s="10"/>
     </row>
-    <row r="782">
+    <row r="782" spans="5:8" ht="15.75" customHeight="1">
       <c r="E782" s="11"/>
       <c r="G782" s="12"/>
       <c r="H782" s="10"/>
     </row>
-    <row r="783">
+    <row r="783" spans="5:8" ht="15.75" customHeight="1">
       <c r="E783" s="11"/>
       <c r="G783" s="12"/>
       <c r="H783" s="10"/>
     </row>
-    <row r="784">
+    <row r="784" spans="5:8" ht="15.75" customHeight="1">
       <c r="E784" s="11"/>
       <c r="G784" s="12"/>
       <c r="H784" s="10"/>
     </row>
-    <row r="785">
+    <row r="785" spans="5:8" ht="15.75" customHeight="1">
       <c r="E785" s="11"/>
       <c r="G785" s="12"/>
       <c r="H785" s="10"/>
     </row>
-    <row r="786">
+    <row r="786" spans="5:8" ht="15.75" customHeight="1">
       <c r="E786" s="11"/>
       <c r="G786" s="12"/>
       <c r="H786" s="10"/>
     </row>
-    <row r="787">
+    <row r="787" spans="5:8" ht="15.75" customHeight="1">
       <c r="E787" s="11"/>
       <c r="G787" s="12"/>
       <c r="H787" s="10"/>
     </row>
-    <row r="788">
+    <row r="788" spans="5:8" ht="15.75" customHeight="1">
       <c r="E788" s="11"/>
       <c r="G788" s="12"/>
       <c r="H788" s="10"/>
     </row>
-    <row r="789">
+    <row r="789" spans="5:8" ht="15.75" customHeight="1">
       <c r="E789" s="11"/>
       <c r="G789" s="12"/>
       <c r="H789" s="10"/>
     </row>
-    <row r="790">
+    <row r="790" spans="5:8" ht="15.75" customHeight="1">
       <c r="E790" s="11"/>
       <c r="G790" s="12"/>
       <c r="H790" s="10"/>
     </row>
-    <row r="791">
+    <row r="791" spans="5:8" ht="15.75" customHeight="1">
       <c r="E791" s="11"/>
       <c r="G791" s="12"/>
       <c r="H791" s="10"/>
     </row>
-    <row r="792">
+    <row r="792" spans="5:8" ht="15.75" customHeight="1">
       <c r="E792" s="11"/>
       <c r="G792" s="12"/>
       <c r="H792" s="10"/>
     </row>
-    <row r="793">
+    <row r="793" spans="5:8" ht="15.75" customHeight="1">
       <c r="E793" s="11"/>
       <c r="G793" s="12"/>
       <c r="H793" s="10"/>
     </row>
-    <row r="794">
+    <row r="794" spans="5:8" ht="15.75" customHeight="1">
       <c r="E794" s="11"/>
       <c r="G794" s="12"/>
       <c r="H794" s="10"/>
     </row>
-    <row r="795">
+    <row r="795" spans="5:8" ht="15.75" customHeight="1">
       <c r="E795" s="11"/>
       <c r="G795" s="12"/>
       <c r="H795" s="10"/>
     </row>
-    <row r="796">
+    <row r="796" spans="5:8" ht="15.75" customHeight="1">
       <c r="E796" s="11"/>
       <c r="G796" s="12"/>
       <c r="H796" s="10"/>
     </row>
-    <row r="797">
+    <row r="797" spans="5:8" ht="15.75" customHeight="1">
       <c r="E797" s="11"/>
       <c r="G797" s="12"/>
       <c r="H797" s="10"/>
     </row>
-    <row r="798">
+    <row r="798" spans="5:8" ht="15.75" customHeight="1">
       <c r="E798" s="11"/>
       <c r="G798" s="12"/>
       <c r="H798" s="10"/>
     </row>
-    <row r="799">
+    <row r="799" spans="5:8" ht="15.75" customHeight="1">
       <c r="E799" s="11"/>
       <c r="G799" s="12"/>
       <c r="H799" s="10"/>
     </row>
-    <row r="800">
+    <row r="800" spans="5:8" ht="15.75" customHeight="1">
       <c r="E800" s="11"/>
       <c r="G800" s="12"/>
       <c r="H800" s="10"/>
     </row>
-    <row r="801">
+    <row r="801" spans="5:8" ht="15.75" customHeight="1">
       <c r="E801" s="11"/>
       <c r="G801" s="12"/>
       <c r="H801" s="10"/>
     </row>
-    <row r="802">
+    <row r="802" spans="5:8" ht="15.75" customHeight="1">
       <c r="E802" s="11"/>
       <c r="G802" s="12"/>
       <c r="H802" s="10"/>
     </row>
-    <row r="803">
+    <row r="803" spans="5:8" ht="15.75" customHeight="1">
       <c r="E803" s="11"/>
       <c r="G803" s="12"/>
       <c r="H803" s="10"/>
     </row>
-    <row r="804">
+    <row r="804" spans="5:8" ht="15.75" customHeight="1">
       <c r="E804" s="11"/>
       <c r="G804" s="12"/>
       <c r="H804" s="10"/>
     </row>
-    <row r="805">
+    <row r="805" spans="5:8" ht="15.75" customHeight="1">
       <c r="E805" s="11"/>
       <c r="G805" s="12"/>
       <c r="H805" s="10"/>
     </row>
-    <row r="806">
+    <row r="806" spans="5:8" ht="15.75" customHeight="1">
       <c r="E806" s="11"/>
       <c r="G806" s="12"/>
       <c r="H806" s="10"/>
     </row>
-    <row r="807">
+    <row r="807" spans="5:8" ht="15.75" customHeight="1">
       <c r="E807" s="11"/>
       <c r="G807" s="12"/>
       <c r="H807" s="10"/>
     </row>
-    <row r="808">
+    <row r="808" spans="5:8" ht="15.75" customHeight="1">
       <c r="E808" s="11"/>
       <c r="G808" s="12"/>
       <c r="H808" s="10"/>
     </row>
-    <row r="809">
+    <row r="809" spans="5:8" ht="15.75" customHeight="1">
       <c r="E809" s="11"/>
       <c r="G809" s="12"/>
       <c r="H809" s="10"/>
     </row>
-    <row r="810">
+    <row r="810" spans="5:8" ht="15.75" customHeight="1">
       <c r="E810" s="11"/>
       <c r="G810" s="12"/>
       <c r="H810" s="10"/>
     </row>
-    <row r="811">
+    <row r="811" spans="5:8" ht="15.75" customHeight="1">
       <c r="E811" s="11"/>
       <c r="G811" s="12"/>
       <c r="H811" s="10"/>
     </row>
-    <row r="812">
+    <row r="812" spans="5:8" ht="15.75" customHeight="1">
       <c r="E812" s="11"/>
       <c r="G812" s="12"/>
       <c r="H812" s="10"/>
     </row>
-    <row r="813">
+    <row r="813" spans="5:8" ht="15.75" customHeight="1">
       <c r="E813" s="11"/>
       <c r="G813" s="12"/>
       <c r="H813" s="10"/>
     </row>
-    <row r="814">
+    <row r="814" spans="5:8" ht="15.75" customHeight="1">
       <c r="E814" s="11"/>
       <c r="G814" s="12"/>
       <c r="H814" s="10"/>
     </row>
-    <row r="815">
+    <row r="815" spans="5:8" ht="15.75" customHeight="1">
       <c r="E815" s="11"/>
       <c r="G815" s="12"/>
       <c r="H815" s="10"/>
     </row>
-    <row r="816">
+    <row r="816" spans="5:8" ht="15.75" customHeight="1">
       <c r="E816" s="11"/>
       <c r="G816" s="12"/>
       <c r="H816" s="10"/>
     </row>
-    <row r="817">
+    <row r="817" spans="5:8" ht="15.75" customHeight="1">
       <c r="E817" s="11"/>
       <c r="G817" s="12"/>
       <c r="H817" s="10"/>
     </row>
-    <row r="818">
+    <row r="818" spans="5:8" ht="15.75" customHeight="1">
       <c r="E818" s="11"/>
       <c r="G818" s="12"/>
       <c r="H818" s="10"/>
     </row>
-    <row r="819">
+    <row r="819" spans="5:8" ht="15.75" customHeight="1">
       <c r="E819" s="11"/>
       <c r="G819" s="12"/>
       <c r="H819" s="10"/>
     </row>
-    <row r="820">
+    <row r="820" spans="5:8" ht="15.75" customHeight="1">
       <c r="E820" s="11"/>
       <c r="G820" s="12"/>
       <c r="H820" s="10"/>
     </row>
-    <row r="821">
+    <row r="821" spans="5:8" ht="15.75" customHeight="1">
       <c r="E821" s="11"/>
       <c r="G821" s="12"/>
       <c r="H821" s="10"/>
     </row>
-    <row r="822">
+    <row r="822" spans="5:8" ht="15.75" customHeight="1">
       <c r="E822" s="11"/>
       <c r="G822" s="12"/>
       <c r="H822" s="10"/>
     </row>
-    <row r="823">
+    <row r="823" spans="5:8" ht="15.75" customHeight="1">
       <c r="E823" s="11"/>
       <c r="G823" s="12"/>
       <c r="H823" s="10"/>
     </row>
-    <row r="824">
+    <row r="824" spans="5:8" ht="15.75" customHeight="1">
       <c r="E824" s="11"/>
       <c r="G824" s="12"/>
       <c r="H824" s="10"/>
     </row>
-    <row r="825">
+    <row r="825" spans="5:8" ht="15.75" customHeight="1">
       <c r="E825" s="11"/>
       <c r="G825" s="12"/>
       <c r="H825" s="10"/>
     </row>
-    <row r="826">
+    <row r="826" spans="5:8" ht="15.75" customHeight="1">
       <c r="E826" s="11"/>
       <c r="G826" s="12"/>
       <c r="H826" s="10"/>
     </row>
-    <row r="827">
+    <row r="827" spans="5:8" ht="15.75" customHeight="1">
       <c r="E827" s="11"/>
       <c r="G827" s="12"/>
       <c r="H827" s="10"/>
     </row>
-    <row r="828">
+    <row r="828" spans="5:8" ht="15.75" customHeight="1">
       <c r="E828" s="11"/>
       <c r="G828" s="12"/>
       <c r="H828" s="10"/>
     </row>
-    <row r="829">
+    <row r="829" spans="5:8" ht="15.75" customHeight="1">
       <c r="E829" s="11"/>
       <c r="G829" s="12"/>
       <c r="H829" s="10"/>
     </row>
-    <row r="830">
+    <row r="830" spans="5:8" ht="15.75" customHeight="1">
       <c r="E830" s="11"/>
       <c r="G830" s="12"/>
       <c r="H830" s="10"/>
     </row>
-    <row r="831">
+    <row r="831" spans="5:8" ht="15.75" customHeight="1">
       <c r="E831" s="11"/>
       <c r="G831" s="12"/>
       <c r="H831" s="10"/>
     </row>
-    <row r="832">
+    <row r="832" spans="5:8" ht="15.75" customHeight="1">
       <c r="E832" s="11"/>
       <c r="G832" s="12"/>
       <c r="H832" s="10"/>
     </row>
-    <row r="833">
+    <row r="833" spans="5:8" ht="15.75" customHeight="1">
       <c r="E833" s="11"/>
       <c r="G833" s="12"/>
       <c r="H833" s="10"/>
     </row>
-    <row r="834">
+    <row r="834" spans="5:8" ht="15.75" customHeight="1">
       <c r="E834" s="11"/>
       <c r="G834" s="12"/>
       <c r="H834" s="10"/>
     </row>
-    <row r="835">
+    <row r="835" spans="5:8" ht="15.75" customHeight="1">
       <c r="E835" s="11"/>
       <c r="G835" s="12"/>
       <c r="H835" s="10"/>
     </row>
-    <row r="836">
+    <row r="836" spans="5:8" ht="15.75" customHeight="1">
       <c r="E836" s="11"/>
       <c r="G836" s="12"/>
       <c r="H836" s="10"/>
     </row>
-    <row r="837">
+    <row r="837" spans="5:8" ht="15.75" customHeight="1">
       <c r="E837" s="11"/>
       <c r="G837" s="12"/>
       <c r="H837" s="10"/>
     </row>
-    <row r="838">
+    <row r="838" spans="5:8" ht="15.75" customHeight="1">
       <c r="E838" s="11"/>
       <c r="G838" s="12"/>
       <c r="H838" s="10"/>
     </row>
-    <row r="839">
+    <row r="839" spans="5:8" ht="15.75" customHeight="1">
       <c r="E839" s="11"/>
       <c r="G839" s="12"/>
       <c r="H839" s="10"/>
     </row>
-    <row r="840">
+    <row r="840" spans="5:8" ht="15.75" customHeight="1">
       <c r="E840" s="11"/>
       <c r="G840" s="12"/>
       <c r="H840" s="10"/>
     </row>
-    <row r="841">
+    <row r="841" spans="5:8" ht="15.75" customHeight="1">
       <c r="E841" s="11"/>
       <c r="G841" s="12"/>
       <c r="H841" s="10"/>
     </row>
-    <row r="842">
+    <row r="842" spans="5:8" ht="15.75" customHeight="1">
       <c r="E842" s="11"/>
       <c r="G842" s="12"/>
       <c r="H842" s="10"/>
     </row>
-    <row r="843">
+    <row r="843" spans="5:8" ht="15.75" customHeight="1">
       <c r="E843" s="11"/>
       <c r="G843" s="12"/>
       <c r="H843" s="10"/>
     </row>
-    <row r="844">
+    <row r="844" spans="5:8" ht="15.75" customHeight="1">
       <c r="E844" s="11"/>
       <c r="G844" s="12"/>
       <c r="H844" s="10"/>
     </row>
-    <row r="845">
+    <row r="845" spans="5:8" ht="15.75" customHeight="1">
       <c r="E845" s="11"/>
       <c r="G845" s="12"/>
       <c r="H845" s="10"/>
     </row>
-    <row r="846">
+    <row r="846" spans="5:8" ht="15.75" customHeight="1">
       <c r="E846" s="11"/>
       <c r="G846" s="12"/>
       <c r="H846" s="10"/>
     </row>
-    <row r="847">
+    <row r="847" spans="5:8" ht="15.75" customHeight="1">
       <c r="E847" s="11"/>
       <c r="G847" s="12"/>
       <c r="H847" s="10"/>
     </row>
-    <row r="848">
+    <row r="848" spans="5:8" ht="15.75" customHeight="1">
       <c r="E848" s="11"/>
       <c r="G848" s="12"/>
       <c r="H848" s="10"/>
     </row>
-    <row r="849">
+    <row r="849" spans="5:8" ht="15.75" customHeight="1">
       <c r="E849" s="11"/>
       <c r="G849" s="12"/>
       <c r="H849" s="10"/>
     </row>
-    <row r="850">
+    <row r="850" spans="5:8" ht="15.75" customHeight="1">
       <c r="E850" s="11"/>
       <c r="G850" s="12"/>
       <c r="H850" s="10"/>
     </row>
-    <row r="851">
+    <row r="851" spans="5:8" ht="15.75" customHeight="1">
       <c r="E851" s="11"/>
       <c r="G851" s="12"/>
       <c r="H851" s="10"/>
     </row>
-    <row r="852">
+    <row r="852" spans="5:8" ht="15.75" customHeight="1">
       <c r="E852" s="11"/>
       <c r="G852" s="12"/>
       <c r="H852" s="10"/>
     </row>
-    <row r="853">
+    <row r="853" spans="5:8" ht="15.75" customHeight="1">
       <c r="E853" s="11"/>
       <c r="G853" s="12"/>
       <c r="H853" s="10"/>
     </row>
-    <row r="854">
+    <row r="854" spans="5:8" ht="15.75" customHeight="1">
       <c r="E854" s="11"/>
       <c r="G854" s="12"/>
       <c r="H854" s="10"/>
     </row>
-    <row r="855">
+    <row r="855" spans="5:8" ht="15.75" customHeight="1">
       <c r="E855" s="11"/>
       <c r="G855" s="12"/>
       <c r="H855" s="10"/>
     </row>
-    <row r="856">
+    <row r="856" spans="5:8" ht="15.75" customHeight="1">
       <c r="E856" s="11"/>
       <c r="G856" s="12"/>
       <c r="H856" s="10"/>
     </row>
-    <row r="857">
+    <row r="857" spans="5:8" ht="15.75" customHeight="1">
       <c r="E857" s="11"/>
       <c r="G857" s="12"/>
       <c r="H857" s="10"/>
     </row>
-    <row r="858">
+    <row r="858" spans="5:8" ht="15.75" customHeight="1">
       <c r="E858" s="11"/>
       <c r="G858" s="12"/>
       <c r="H858" s="10"/>
     </row>
-    <row r="859">
+    <row r="859" spans="5:8" ht="15.75" customHeight="1">
       <c r="E859" s="11"/>
       <c r="G859" s="12"/>
       <c r="H859" s="10"/>
     </row>
-    <row r="860">
+    <row r="860" spans="5:8" ht="15.75" customHeight="1">
       <c r="E860" s="11"/>
       <c r="G860" s="12"/>
       <c r="H860" s="10"/>
     </row>
-    <row r="861">
+    <row r="861" spans="5:8" ht="15.75" customHeight="1">
       <c r="E861" s="11"/>
       <c r="G861" s="12"/>
       <c r="H861" s="10"/>
     </row>
-    <row r="862">
+    <row r="862" spans="5:8" ht="15.75" customHeight="1">
       <c r="E862" s="11"/>
       <c r="G862" s="12"/>
       <c r="H862" s="10"/>
     </row>
-    <row r="863">
+    <row r="863" spans="5:8" ht="15.75" customHeight="1">
       <c r="E863" s="11"/>
       <c r="G863" s="12"/>
       <c r="H863" s="10"/>
     </row>
-    <row r="864">
+    <row r="864" spans="5:8" ht="15.75" customHeight="1">
       <c r="E864" s="11"/>
       <c r="G864" s="12"/>
       <c r="H864" s="10"/>
     </row>
-    <row r="865">
+    <row r="865" spans="5:8" ht="15.75" customHeight="1">
       <c r="E865" s="11"/>
       <c r="G865" s="12"/>
       <c r="H865" s="10"/>
     </row>
-    <row r="866">
+    <row r="866" spans="5:8" ht="15.75" customHeight="1">
       <c r="E866" s="11"/>
       <c r="G866" s="12"/>
       <c r="H866" s="10"/>
     </row>
-    <row r="867">
+    <row r="867" spans="5:8" ht="15.75" customHeight="1">
       <c r="E867" s="11"/>
       <c r="G867" s="12"/>
       <c r="H867" s="10"/>
     </row>
-    <row r="868">
+    <row r="868" spans="5:8" ht="15.75" customHeight="1">
       <c r="E868" s="11"/>
       <c r="G868" s="12"/>
       <c r="H868" s="10"/>
     </row>
-    <row r="869">
+    <row r="869" spans="5:8" ht="15.75" customHeight="1">
       <c r="E869" s="11"/>
       <c r="G869" s="12"/>
       <c r="H869" s="10"/>
     </row>
-    <row r="870">
+    <row r="870" spans="5:8" ht="15.75" customHeight="1">
       <c r="E870" s="11"/>
       <c r="G870" s="12"/>
       <c r="H870" s="10"/>
     </row>
-    <row r="871">
+    <row r="871" spans="5:8" ht="15.75" customHeight="1">
       <c r="E871" s="11"/>
       <c r="G871" s="12"/>
       <c r="H871" s="10"/>
     </row>
-    <row r="872">
+    <row r="872" spans="5:8" ht="15.75" customHeight="1">
       <c r="E872" s="11"/>
       <c r="G872" s="12"/>
       <c r="H872" s="10"/>
     </row>
-    <row r="873">
+    <row r="873" spans="5:8" ht="15.75" customHeight="1">
       <c r="E873" s="11"/>
       <c r="G873" s="12"/>
       <c r="H873" s="10"/>
     </row>
-    <row r="874">
+    <row r="874" spans="5:8" ht="15.75" customHeight="1">
       <c r="E874" s="11"/>
       <c r="G874" s="12"/>
       <c r="H874" s="10"/>
     </row>
-    <row r="875">
+    <row r="875" spans="5:8" ht="15.75" customHeight="1">
       <c r="E875" s="11"/>
       <c r="G875" s="12"/>
       <c r="H875" s="10"/>
     </row>
-    <row r="876">
+    <row r="876" spans="5:8" ht="15.75" customHeight="1">
       <c r="E876" s="11"/>
       <c r="G876" s="12"/>
       <c r="H876" s="10"/>
     </row>
-    <row r="877">
+    <row r="877" spans="5:8" ht="15.75" customHeight="1">
       <c r="E877" s="11"/>
       <c r="G877" s="12"/>
       <c r="H877" s="10"/>
     </row>
-    <row r="878">
+    <row r="878" spans="5:8" ht="15.75" customHeight="1">
       <c r="E878" s="11"/>
       <c r="G878" s="12"/>
       <c r="H878" s="10"/>
     </row>
-    <row r="879">
+    <row r="879" spans="5:8" ht="15.75" customHeight="1">
       <c r="E879" s="11"/>
       <c r="G879" s="12"/>
       <c r="H879" s="10"/>
     </row>
-    <row r="880">
+    <row r="880" spans="5:8" ht="15.75" customHeight="1">
       <c r="E880" s="11"/>
       <c r="G880" s="12"/>
       <c r="H880" s="10"/>
     </row>
-    <row r="881">
+    <row r="881" spans="5:8" ht="15.75" customHeight="1">
       <c r="E881" s="11"/>
       <c r="G881" s="12"/>
       <c r="H881" s="10"/>
     </row>
-    <row r="882">
+    <row r="882" spans="5:8" ht="15.75" customHeight="1">
       <c r="E882" s="11"/>
       <c r="G882" s="12"/>
       <c r="H882" s="10"/>
     </row>
-    <row r="883">
+    <row r="883" spans="5:8" ht="15.75" customHeight="1">
       <c r="E883" s="11"/>
       <c r="G883" s="12"/>
       <c r="H883" s="10"/>
     </row>
-    <row r="884">
+    <row r="884" spans="5:8" ht="15.75" customHeight="1">
       <c r="E884" s="11"/>
       <c r="G884" s="12"/>
       <c r="H884" s="10"/>
     </row>
-    <row r="885">
+    <row r="885" spans="5:8" ht="15.75" customHeight="1">
       <c r="E885" s="11"/>
       <c r="G885" s="12"/>
       <c r="H885" s="10"/>
     </row>
-    <row r="886">
+    <row r="886" spans="5:8" ht="15.75" customHeight="1">
       <c r="E886" s="11"/>
       <c r="G886" s="12"/>
       <c r="H886" s="10"/>
     </row>
-    <row r="887">
+    <row r="887" spans="5:8" ht="15.75" customHeight="1">
       <c r="E887" s="11"/>
       <c r="G887" s="12"/>
       <c r="H887" s="10"/>
     </row>
-    <row r="888">
+    <row r="888" spans="5:8" ht="15.75" customHeight="1">
       <c r="E888" s="11"/>
       <c r="G888" s="12"/>
       <c r="H888" s="10"/>
     </row>
-    <row r="889">
+    <row r="889" spans="5:8" ht="15.75" customHeight="1">
       <c r="E889" s="11"/>
       <c r="G889" s="12"/>
       <c r="H889" s="10"/>
     </row>
-    <row r="890">
+    <row r="890" spans="5:8" ht="15.75" customHeight="1">
       <c r="E890" s="11"/>
       <c r="G890" s="12"/>
       <c r="H890" s="10"/>
     </row>
-    <row r="891">
+    <row r="891" spans="5:8" ht="15.75" customHeight="1">
       <c r="E891" s="11"/>
       <c r="G891" s="12"/>
       <c r="H891" s="10"/>
     </row>
-    <row r="892">
+    <row r="892" spans="5:8" ht="15.75" customHeight="1">
       <c r="E892" s="11"/>
       <c r="G892" s="12"/>
       <c r="H892" s="10"/>
     </row>
-    <row r="893">
+    <row r="893" spans="5:8" ht="15.75" customHeight="1">
       <c r="E893" s="11"/>
       <c r="G893" s="12"/>
       <c r="H893" s="10"/>
     </row>
-    <row r="894">
+    <row r="894" spans="5:8" ht="15.75" customHeight="1">
       <c r="E894" s="11"/>
       <c r="G894" s="12"/>
       <c r="H894" s="10"/>
     </row>
-    <row r="895">
+    <row r="895" spans="5:8" ht="15.75" customHeight="1">
       <c r="E895" s="11"/>
       <c r="G895" s="12"/>
       <c r="H895" s="10"/>
     </row>
-    <row r="896">
+    <row r="896" spans="5:8" ht="15.75" customHeight="1">
       <c r="E896" s="11"/>
       <c r="G896" s="12"/>
       <c r="H896" s="10"/>
     </row>
-    <row r="897">
+    <row r="897" spans="5:8" ht="15.75" customHeight="1">
       <c r="E897" s="11"/>
       <c r="G897" s="12"/>
       <c r="H897" s="10"/>
     </row>
-    <row r="898">
+    <row r="898" spans="5:8" ht="15.75" customHeight="1">
       <c r="E898" s="11"/>
       <c r="G898" s="12"/>
       <c r="H898" s="10"/>
     </row>
-    <row r="899">
+    <row r="899" spans="5:8" ht="15.75" customHeight="1">
       <c r="E899" s="11"/>
       <c r="G899" s="12"/>
       <c r="H899" s="10"/>
     </row>
-    <row r="900">
+    <row r="900" spans="5:8" ht="15.75" customHeight="1">
       <c r="E900" s="11"/>
       <c r="G900" s="12"/>
       <c r="H900" s="10"/>
     </row>
-    <row r="901">
+    <row r="901" spans="5:8" ht="15.75" customHeight="1">
       <c r="E901" s="11"/>
       <c r="G901" s="12"/>
       <c r="H901" s="10"/>
     </row>
-    <row r="902">
+    <row r="902" spans="5:8" ht="15.75" customHeight="1">
       <c r="E902" s="11"/>
       <c r="G902" s="12"/>
       <c r="H902" s="10"/>
     </row>
-    <row r="903">
+    <row r="903" spans="5:8" ht="15.75" customHeight="1">
       <c r="E903" s="11"/>
       <c r="G903" s="12"/>
       <c r="H903" s="10"/>
     </row>
-    <row r="904">
+    <row r="904" spans="5:8" ht="15.75" customHeight="1">
       <c r="E904" s="11"/>
       <c r="G904" s="12"/>
       <c r="H904" s="10"/>
     </row>
-    <row r="905">
+    <row r="905" spans="5:8" ht="15.75" customHeight="1">
       <c r="E905" s="11"/>
       <c r="G905" s="12"/>
       <c r="H905" s="10"/>
     </row>
-    <row r="906">
+    <row r="906" spans="5:8" ht="15.75" customHeight="1">
       <c r="E906" s="11"/>
       <c r="G906" s="12"/>
       <c r="H906" s="10"/>
     </row>
-    <row r="907">
+    <row r="907" spans="5:8" ht="15.75" customHeight="1">
       <c r="E907" s="11"/>
       <c r="G907" s="12"/>
       <c r="H907" s="10"/>
     </row>
-    <row r="908">
+    <row r="908" spans="5:8" ht="15.75" customHeight="1">
       <c r="E908" s="11"/>
       <c r="G908" s="12"/>
       <c r="H908" s="10"/>
     </row>
-    <row r="909">
+    <row r="909" spans="5:8" ht="15.75" customHeight="1">
       <c r="E909" s="11"/>
       <c r="G909" s="12"/>
       <c r="H909" s="10"/>
     </row>
-    <row r="910">
+    <row r="910" spans="5:8" ht="15.75" customHeight="1">
       <c r="E910" s="11"/>
       <c r="G910" s="12"/>
       <c r="H910" s="10"/>
     </row>
-    <row r="911">
+    <row r="911" spans="5:8" ht="15.75" customHeight="1">
       <c r="E911" s="11"/>
       <c r="G911" s="12"/>
       <c r="H911" s="10"/>
     </row>
-    <row r="912">
+    <row r="912" spans="5:8" ht="15.75" customHeight="1">
       <c r="E912" s="11"/>
       <c r="G912" s="12"/>
       <c r="H912" s="10"/>
     </row>
-    <row r="913">
+    <row r="913" spans="5:8" ht="15.75" customHeight="1">
       <c r="E913" s="11"/>
       <c r="G913" s="12"/>
       <c r="H913" s="10"/>
     </row>
-    <row r="914">
+    <row r="914" spans="5:8" ht="15.75" customHeight="1">
       <c r="E914" s="11"/>
       <c r="G914" s="12"/>
       <c r="H914" s="10"/>
     </row>
-    <row r="915">
+    <row r="915" spans="5:8" ht="15.75" customHeight="1">
       <c r="E915" s="11"/>
       <c r="G915" s="12"/>
       <c r="H915" s="10"/>
     </row>
-    <row r="916">
+    <row r="916" spans="5:8" ht="15.75" customHeight="1">
       <c r="E916" s="11"/>
       <c r="G916" s="12"/>
       <c r="H916" s="10"/>
     </row>
-    <row r="917">
+    <row r="917" spans="5:8" ht="15.75" customHeight="1">
       <c r="E917" s="11"/>
       <c r="G917" s="12"/>
       <c r="H917" s="10"/>
     </row>
-    <row r="918">
+    <row r="918" spans="5:8" ht="15.75" customHeight="1">
       <c r="E918" s="11"/>
       <c r="G918" s="12"/>
       <c r="H918" s="10"/>
     </row>
-    <row r="919">
+    <row r="919" spans="5:8" ht="15.75" customHeight="1">
       <c r="E919" s="11"/>
       <c r="G919" s="12"/>
       <c r="H919" s="10"/>
     </row>
-    <row r="920">
+    <row r="920" spans="5:8" ht="15.75" customHeight="1">
       <c r="E920" s="11"/>
       <c r="G920" s="12"/>
       <c r="H920" s="10"/>
     </row>
-    <row r="921">
+    <row r="921" spans="5:8" ht="15.75" customHeight="1">
       <c r="E921" s="11"/>
       <c r="G921" s="12"/>
       <c r="H921" s="10"/>
     </row>
-    <row r="922">
+    <row r="922" spans="5:8" ht="15.75" customHeight="1">
       <c r="E922" s="11"/>
       <c r="G922" s="12"/>
       <c r="H922" s="10"/>
     </row>
-    <row r="923">
+    <row r="923" spans="5:8" ht="15.75" customHeight="1">
       <c r="E923" s="11"/>
       <c r="G923" s="12"/>
       <c r="H923" s="10"/>
     </row>
-    <row r="924">
+    <row r="924" spans="5:8" ht="15.75" customHeight="1">
       <c r="E924" s="11"/>
       <c r="G924" s="12"/>
       <c r="H924" s="10"/>
     </row>
-    <row r="925">
+    <row r="925" spans="5:8" ht="15.75" customHeight="1">
       <c r="E925" s="11"/>
       <c r="G925" s="12"/>
       <c r="H925" s="10"/>
     </row>
-    <row r="926">
+    <row r="926" spans="5:8" ht="15.75" customHeight="1">
       <c r="E926" s="11"/>
       <c r="G926" s="12"/>
       <c r="H926" s="10"/>
     </row>
-    <row r="927">
+    <row r="927" spans="5:8" ht="15.75" customHeight="1">
       <c r="E927" s="11"/>
       <c r="G927" s="12"/>
       <c r="H927" s="10"/>
     </row>
-    <row r="928">
+    <row r="928" spans="5:8" ht="15.75" customHeight="1">
       <c r="E928" s="11"/>
       <c r="G928" s="12"/>
       <c r="H928" s="10"/>
     </row>
-    <row r="929">
+    <row r="929" spans="5:8" ht="15.75" customHeight="1">
       <c r="E929" s="11"/>
       <c r="G929" s="12"/>
       <c r="H929" s="10"/>
     </row>
-    <row r="930">
+    <row r="930" spans="5:8" ht="15.75" customHeight="1">
       <c r="E930" s="11"/>
       <c r="G930" s="12"/>
       <c r="H930" s="10"/>
     </row>
-    <row r="931">
+    <row r="931" spans="5:8" ht="15.75" customHeight="1">
       <c r="E931" s="11"/>
       <c r="G931" s="12"/>
       <c r="H931" s="10"/>
     </row>
-    <row r="932">
+    <row r="932" spans="5:8" ht="15.75" customHeight="1">
       <c r="E932" s="11"/>
       <c r="G932" s="12"/>
       <c r="H932" s="10"/>
     </row>
-    <row r="933">
+    <row r="933" spans="5:8" ht="15.75" customHeight="1">
       <c r="E933" s="11"/>
       <c r="G933" s="12"/>
       <c r="H933" s="10"/>
     </row>
-    <row r="934">
+    <row r="934" spans="5:8" ht="15.75" customHeight="1">
       <c r="E934" s="11"/>
       <c r="G934" s="12"/>
       <c r="H934" s="10"/>
     </row>
-    <row r="935">
+    <row r="935" spans="5:8" ht="15.75" customHeight="1">
       <c r="E935" s="11"/>
       <c r="G935" s="12"/>
       <c r="H935" s="10"/>
     </row>
-    <row r="936">
+    <row r="936" spans="5:8" ht="15.75" customHeight="1">
       <c r="E936" s="11"/>
       <c r="G936" s="12"/>
       <c r="H936" s="10"/>
     </row>
-    <row r="937">
+    <row r="937" spans="5:8" ht="15.75" customHeight="1">
       <c r="E937" s="11"/>
       <c r="G937" s="12"/>
       <c r="H937" s="10"/>
     </row>
-    <row r="938">
+    <row r="938" spans="5:8" ht="15.75" customHeight="1">
       <c r="E938" s="11"/>
       <c r="G938" s="12"/>
       <c r="H938" s="10"/>
     </row>
-    <row r="939">
+    <row r="939" spans="5:8" ht="15.75" customHeight="1">
       <c r="E939" s="11"/>
       <c r="G939" s="12"/>
       <c r="H939" s="10"/>
     </row>
-    <row r="940">
+    <row r="940" spans="5:8" ht="15.75" customHeight="1">
       <c r="E940" s="11"/>
       <c r="G940" s="12"/>
       <c r="H940" s="10"/>
     </row>
-    <row r="941">
+    <row r="941" spans="5:8" ht="15.75" customHeight="1">
       <c r="E941" s="11"/>
       <c r="G941" s="12"/>
       <c r="H941" s="10"/>
     </row>
-    <row r="942">
+    <row r="942" spans="5:8" ht="15.75" customHeight="1">
       <c r="E942" s="11"/>
       <c r="G942" s="12"/>
       <c r="H942" s="10"/>
     </row>
-    <row r="943">
+    <row r="943" spans="5:8" ht="15.75" customHeight="1">
       <c r="E943" s="11"/>
       <c r="G943" s="12"/>
       <c r="H943" s="10"/>
     </row>
-    <row r="944">
+    <row r="944" spans="5:8" ht="15.75" customHeight="1">
       <c r="E944" s="11"/>
       <c r="G944" s="12"/>
       <c r="H944" s="10"/>
     </row>
-    <row r="945">
+    <row r="945" spans="5:8" ht="15.75" customHeight="1">
       <c r="E945" s="11"/>
       <c r="G945" s="12"/>
       <c r="H945" s="10"/>
     </row>
-    <row r="946">
+    <row r="946" spans="5:8" ht="15.75" customHeight="1">
       <c r="E946" s="11"/>
       <c r="G946" s="12"/>
       <c r="H946" s="10"/>
     </row>
-    <row r="947">
+    <row r="947" spans="5:8" ht="15.75" customHeight="1">
       <c r="E947" s="11"/>
       <c r="G947" s="12"/>
       <c r="H947" s="10"/>
     </row>
-    <row r="948">
+    <row r="948" spans="5:8" ht="15.75" customHeight="1">
       <c r="E948" s="11"/>
       <c r="G948" s="12"/>
       <c r="H948" s="10"/>
     </row>
-    <row r="949">
+    <row r="949" spans="5:8" ht="15.75" customHeight="1">
       <c r="E949" s="11"/>
       <c r="G949" s="12"/>
       <c r="H949" s="10"/>
     </row>
-    <row r="950">
+    <row r="950" spans="5:8" ht="15.75" customHeight="1">
       <c r="E950" s="11"/>
       <c r="G950" s="12"/>
       <c r="H950" s="10"/>
     </row>
-    <row r="951">
+    <row r="951" spans="5:8" ht="15.75" customHeight="1">
       <c r="E951" s="11"/>
       <c r="G951" s="12"/>
       <c r="H951" s="10"/>
     </row>
-    <row r="952">
+    <row r="952" spans="5:8" ht="15.75" customHeight="1">
       <c r="E952" s="11"/>
       <c r="G952" s="12"/>
       <c r="H952" s="10"/>
     </row>
-    <row r="953">
+    <row r="953" spans="5:8" ht="15.75" customHeight="1">
       <c r="E953" s="11"/>
       <c r="G953" s="12"/>
       <c r="H953" s="10"/>
     </row>
-    <row r="954">
+    <row r="954" spans="5:8" ht="15.75" customHeight="1">
       <c r="E954" s="11"/>
       <c r="G954" s="12"/>
       <c r="H954" s="10"/>
     </row>
-    <row r="955">
+    <row r="955" spans="5:8" ht="15.75" customHeight="1">
       <c r="E955" s="11"/>
       <c r="G955" s="12"/>
       <c r="H955" s="10"/>
     </row>
-    <row r="956">
+    <row r="956" spans="5:8" ht="15.75" customHeight="1">
       <c r="E956" s="11"/>
       <c r="G956" s="12"/>
       <c r="H956" s="10"/>
     </row>
-    <row r="957">
+    <row r="957" spans="5:8" ht="15.75" customHeight="1">
       <c r="E957" s="11"/>
       <c r="G957" s="12"/>
       <c r="H957" s="10"/>
     </row>
-    <row r="958">
+    <row r="958" spans="5:8" ht="15.75" customHeight="1">
       <c r="E958" s="11"/>
       <c r="G958" s="12"/>
       <c r="H958" s="10"/>
     </row>
-    <row r="959">
+    <row r="959" spans="5:8" ht="15.75" customHeight="1">
       <c r="E959" s="11"/>
       <c r="G959" s="12"/>
       <c r="H959" s="10"/>
     </row>
-    <row r="960">
+    <row r="960" spans="5:8" ht="15.75" customHeight="1">
       <c r="E960" s="11"/>
       <c r="G960" s="12"/>
       <c r="H960" s="10"/>
     </row>
-    <row r="961">
+    <row r="961" spans="5:8" ht="15.75" customHeight="1">
       <c r="E961" s="11"/>
       <c r="G961" s="12"/>
       <c r="H961" s="10"/>
     </row>
-    <row r="962">
+    <row r="962" spans="5:8" ht="15.75" customHeight="1">
       <c r="E962" s="11"/>
       <c r="G962" s="12"/>
       <c r="H962" s="10"/>
     </row>
-    <row r="963">
+    <row r="963" spans="5:8" ht="15.75" customHeight="1">
       <c r="E963" s="11"/>
       <c r="G963" s="12"/>
       <c r="H963" s="10"/>
     </row>
-    <row r="964">
+    <row r="964" spans="5:8" ht="15.75" customHeight="1">
       <c r="E964" s="11"/>
       <c r="G964" s="12"/>
       <c r="H964" s="10"/>
     </row>
-    <row r="965">
+    <row r="965" spans="5:8" ht="15.75" customHeight="1">
       <c r="E965" s="11"/>
       <c r="G965" s="12"/>
       <c r="H965" s="10"/>
     </row>
-    <row r="966">
+    <row r="966" spans="5:8" ht="15.75" customHeight="1">
       <c r="E966" s="11"/>
       <c r="G966" s="12"/>
       <c r="H966" s="10"/>
     </row>
-    <row r="967">
+    <row r="967" spans="5:8" ht="15.75" customHeight="1">
       <c r="E967" s="11"/>
       <c r="G967" s="12"/>
       <c r="H967" s="10"/>
     </row>
-    <row r="968">
+    <row r="968" spans="5:8" ht="15.75" customHeight="1">
       <c r="E968" s="11"/>
       <c r="G968" s="12"/>
       <c r="H968" s="10"/>
     </row>
-    <row r="969">
+    <row r="969" spans="5:8" ht="15.75" customHeight="1">
       <c r="E969" s="11"/>
       <c r="G969" s="12"/>
       <c r="H969" s="10"/>
     </row>
-    <row r="970">
+    <row r="970" spans="5:8" ht="15.75" customHeight="1">
       <c r="E970" s="11"/>
       <c r="G970" s="12"/>
       <c r="H970" s="10"/>
     </row>
-    <row r="971">
+    <row r="971" spans="5:8" ht="15.75" customHeight="1">
       <c r="E971" s="11"/>
       <c r="G971" s="12"/>
       <c r="H971" s="10"/>
     </row>
-    <row r="972">
+    <row r="972" spans="5:8" ht="15.75" customHeight="1">
       <c r="E972" s="11"/>
       <c r="G972" s="12"/>
       <c r="H972" s="10"/>
     </row>
-    <row r="973">
+    <row r="973" spans="5:8" ht="15.75" customHeight="1">
       <c r="E973" s="11"/>
       <c r="G973" s="12"/>
       <c r="H973" s="10"/>
     </row>
-    <row r="974">
+    <row r="974" spans="5:8" ht="15.75" customHeight="1">
       <c r="E974" s="11"/>
       <c r="G974" s="12"/>
       <c r="H974" s="10"/>
     </row>
-    <row r="975">
+    <row r="975" spans="5:8" ht="15.75" customHeight="1">
       <c r="E975" s="11"/>
       <c r="G975" s="12"/>
       <c r="H975" s="10"/>
     </row>
-    <row r="976">
+    <row r="976" spans="5:8" ht="15.75" customHeight="1">
       <c r="E976" s="11"/>
       <c r="G976" s="12"/>
       <c r="H976" s="10"/>
     </row>
-    <row r="977">
+    <row r="977" spans="5:8" ht="15.75" customHeight="1">
       <c r="E977" s="11"/>
       <c r="G977" s="12"/>
       <c r="H977" s="10"/>
     </row>
-    <row r="978">
+    <row r="978" spans="5:8" ht="15.75" customHeight="1">
       <c r="E978" s="11"/>
       <c r="G978" s="12"/>
       <c r="H978" s="10"/>
     </row>
-    <row r="979">
+    <row r="979" spans="5:8" ht="15.75" customHeight="1">
       <c r="E979" s="11"/>
       <c r="G979" s="12"/>
       <c r="H979" s="10"/>
     </row>
-    <row r="980">
+    <row r="980" spans="5:8" ht="15.75" customHeight="1">
       <c r="E980" s="11"/>
       <c r="G980" s="12"/>
       <c r="H980" s="10"/>
     </row>
-    <row r="981">
+    <row r="981" spans="5:8" ht="15.75" customHeight="1">
       <c r="E981" s="11"/>
       <c r="G981" s="12"/>
       <c r="H981" s="10"/>
     </row>
-    <row r="982">
+    <row r="982" spans="5:8" ht="15.75" customHeight="1">
       <c r="E982" s="11"/>
       <c r="G982" s="12"/>
       <c r="H982" s="10"/>
     </row>
-    <row r="983">
+    <row r="983" spans="5:8" ht="15.75" customHeight="1">
       <c r="E983" s="11"/>
       <c r="G983" s="12"/>
       <c r="H983" s="10"/>
     </row>
-    <row r="984">
+    <row r="984" spans="5:8" ht="15.75" customHeight="1">
       <c r="E984" s="11"/>
       <c r="G984" s="12"/>
       <c r="H984" s="10"/>
     </row>
-    <row r="985">
+    <row r="985" spans="5:8" ht="15.75" customHeight="1">
       <c r="E985" s="11"/>
       <c r="G985" s="12"/>
       <c r="H985" s="10"/>
     </row>
-    <row r="986">
+    <row r="986" spans="5:8" ht="15.75" customHeight="1">
       <c r="E986" s="11"/>
       <c r="G986" s="12"/>
       <c r="H986" s="10"/>
     </row>
-    <row r="987">
+    <row r="987" spans="5:8" ht="15.75" customHeight="1">
       <c r="E987" s="11"/>
       <c r="G987" s="12"/>
       <c r="H987" s="10"/>
     </row>
-    <row r="988">
+    <row r="988" spans="5:8" ht="15.75" customHeight="1">
       <c r="E988" s="11"/>
       <c r="G988" s="12"/>
       <c r="H988" s="10"/>
     </row>
-    <row r="989">
+    <row r="989" spans="5:8" ht="15.75" customHeight="1">
       <c r="E989" s="11"/>
       <c r="G989" s="12"/>
       <c r="H989" s="10"/>
     </row>
-    <row r="990">
+    <row r="990" spans="5:8" ht="15.75" customHeight="1">
       <c r="E990" s="11"/>
       <c r="G990" s="12"/>
       <c r="H990" s="10"/>
     </row>
-    <row r="991">
+    <row r="991" spans="5:8" ht="15.75" customHeight="1">
       <c r="E991" s="11"/>
       <c r="G991" s="12"/>
       <c r="H991" s="10"/>
     </row>
-    <row r="992">
+    <row r="992" spans="5:8" ht="15.75" customHeight="1">
       <c r="E992" s="11"/>
       <c r="G992" s="12"/>
       <c r="H992" s="10"/>
     </row>
-    <row r="993">
+    <row r="993" spans="5:8" ht="15.75" customHeight="1">
       <c r="E993" s="11"/>
       <c r="G993" s="12"/>
       <c r="H993" s="10"/>
     </row>
-    <row r="994">
+    <row r="994" spans="5:8" ht="15.75" customHeight="1">
       <c r="E994" s="11"/>
       <c r="G994" s="12"/>
       <c r="H994" s="10"/>
     </row>
-    <row r="995">
+    <row r="995" spans="5:8" ht="15.75" customHeight="1">
       <c r="E995" s="11"/>
       <c r="G995" s="12"/>
       <c r="H995" s="10"/>
     </row>
-    <row r="996">
+    <row r="996" spans="5:8" ht="15.75" customHeight="1">
       <c r="E996" s="11"/>
       <c r="G996" s="12"/>
       <c r="H996" s="10"/>
     </row>
-    <row r="997">
+    <row r="997" spans="5:8" ht="15.75" customHeight="1">
       <c r="E997" s="11"/>
       <c r="G997" s="12"/>
       <c r="H997" s="10"/>
     </row>
-    <row r="998">
+    <row r="998" spans="5:8" ht="15.75" customHeight="1">
       <c r="E998" s="11"/>
       <c r="G998" s="12"/>
       <c r="H998" s="10"/>
     </row>
-    <row r="999">
+    <row r="999" spans="5:8" ht="15.75" customHeight="1">
       <c r="E999" s="11"/>
       <c r="G999" s="12"/>
       <c r="H999" s="10"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="5:8" ht="15.75" customHeight="1">
       <c r="E1000" s="11"/>
       <c r="G1000" s="12"/>
       <c r="H1000" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F:F">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5642,7 +6275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G:G">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5654,7 +6287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C:C">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5666,7 +6299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E:E">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5678,7 +6311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D:D">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5690,6 +6323,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>